--- a/lab7/lab7-yo.xlsx
+++ b/lab7/lab7-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C54A71A-8AD3-4166-A8CE-28486C20EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F2E22C-AF01-47F7-AA58-8F403FE3D114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0CC3805-AC8E-40F5-BA8D-7020D17EC853}"/>
   </bookViews>
@@ -35,9 +35,89 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ɐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t xml:space="preserve"> ลิตร</t>
+    </r>
+  </si>
+  <si>
+    <t>time s</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>ระดับน้ำ</t>
+  </si>
+  <si>
+    <t>H1 mm</t>
+  </si>
+  <si>
+    <t>H2 mm</t>
+  </si>
+  <si>
+    <t>H3 mm</t>
+  </si>
+  <si>
+    <t>H4 mm</t>
+  </si>
+  <si>
+    <t>H5 mm</t>
+  </si>
+  <si>
+    <t>H6 mm</t>
+  </si>
+  <si>
+    <t>การทดลองที่</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +125,19 @@
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -63,12 +156,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -383,12 +576,571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBE7EE-F248-49DA-9638-1D85BBA26B11}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9">
+        <v>17</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="E7" s="8">
+        <v>900</v>
+      </c>
+      <c r="F7" s="8">
+        <v>428</v>
+      </c>
+      <c r="G7" s="8">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8">
+        <v>33.39</v>
+      </c>
+      <c r="I7" s="8">
+        <v>900</v>
+      </c>
+      <c r="J7" s="8">
+        <v>375</v>
+      </c>
+      <c r="K7" s="8">
+        <v>20</v>
+      </c>
+      <c r="L7" s="11">
+        <v>34.25</v>
+      </c>
+      <c r="M7" s="8">
+        <v>901</v>
+      </c>
+      <c r="N7" s="8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="E8" s="8">
+        <v>870</v>
+      </c>
+      <c r="F8" s="8">
+        <v>433</v>
+      </c>
+      <c r="G8" s="8">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8">
+        <v>33.71</v>
+      </c>
+      <c r="I8" s="8">
+        <v>871</v>
+      </c>
+      <c r="J8" s="8">
+        <v>381</v>
+      </c>
+      <c r="K8" s="8">
+        <v>20</v>
+      </c>
+      <c r="L8" s="11">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="M8" s="8">
+        <v>867</v>
+      </c>
+      <c r="N8" s="8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8">
+        <v>36.96</v>
+      </c>
+      <c r="E9" s="8">
+        <v>840</v>
+      </c>
+      <c r="F9" s="8">
+        <v>437</v>
+      </c>
+      <c r="G9" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="H9" s="8">
+        <v>32.61</v>
+      </c>
+      <c r="I9" s="8">
+        <v>838</v>
+      </c>
+      <c r="J9" s="8">
+        <v>386</v>
+      </c>
+      <c r="K9" s="8">
+        <v>20</v>
+      </c>
+      <c r="L9" s="11">
+        <v>36.01</v>
+      </c>
+      <c r="M9" s="8">
+        <v>840</v>
+      </c>
+      <c r="N9" s="8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="E10" s="8">
+        <v>809</v>
+      </c>
+      <c r="F10" s="8">
+        <v>438</v>
+      </c>
+      <c r="G10" s="8">
+        <v>25</v>
+      </c>
+      <c r="H10" s="8">
+        <v>37.03</v>
+      </c>
+      <c r="I10" s="8">
+        <v>808</v>
+      </c>
+      <c r="J10" s="8">
+        <v>390</v>
+      </c>
+      <c r="K10" s="8">
+        <v>19</v>
+      </c>
+      <c r="L10" s="11">
+        <v>34.97</v>
+      </c>
+      <c r="M10" s="8">
+        <v>810</v>
+      </c>
+      <c r="N10" s="8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="E11" s="8">
+        <v>781</v>
+      </c>
+      <c r="F11" s="8">
+        <v>441</v>
+      </c>
+      <c r="G11" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>34.97</v>
+      </c>
+      <c r="I11" s="8">
+        <v>781</v>
+      </c>
+      <c r="J11" s="8">
+        <v>394</v>
+      </c>
+      <c r="K11" s="8">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11">
+        <v>33.74</v>
+      </c>
+      <c r="M11" s="8">
+        <v>770</v>
+      </c>
+      <c r="N11" s="8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8">
+        <v>34.75</v>
+      </c>
+      <c r="E12" s="8">
+        <v>750</v>
+      </c>
+      <c r="F12" s="8">
+        <v>442</v>
+      </c>
+      <c r="G12" s="8">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8">
+        <v>32.72</v>
+      </c>
+      <c r="I12" s="8">
+        <v>740</v>
+      </c>
+      <c r="J12" s="8">
+        <v>398</v>
+      </c>
+      <c r="K12" s="8">
+        <v>15</v>
+      </c>
+      <c r="L12" s="11">
+        <v>31.54</v>
+      </c>
+      <c r="M12" s="8">
+        <v>738</v>
+      </c>
+      <c r="N12" s="8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8">
+        <v>36.44</v>
+      </c>
+      <c r="E13" s="8">
+        <v>711</v>
+      </c>
+      <c r="F13" s="8">
+        <v>442</v>
+      </c>
+      <c r="G13" s="8">
+        <v>20</v>
+      </c>
+      <c r="H13" s="8">
+        <v>35.32</v>
+      </c>
+      <c r="I13" s="8">
+        <v>709</v>
+      </c>
+      <c r="J13" s="8">
+        <v>400</v>
+      </c>
+      <c r="K13" s="8">
+        <v>15</v>
+      </c>
+      <c r="L13" s="11">
+        <v>35.67</v>
+      </c>
+      <c r="M13" s="8">
+        <v>698</v>
+      </c>
+      <c r="N13" s="8">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="E14" s="8">
+        <v>681</v>
+      </c>
+      <c r="F14" s="8">
+        <v>440</v>
+      </c>
+      <c r="G14" s="8">
+        <v>20</v>
+      </c>
+      <c r="H14" s="8">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="I14" s="8">
+        <v>678</v>
+      </c>
+      <c r="J14" s="8">
+        <v>401</v>
+      </c>
+      <c r="K14" s="8">
+        <v>13</v>
+      </c>
+      <c r="L14" s="11">
+        <v>31.48</v>
+      </c>
+      <c r="M14" s="8">
+        <v>660</v>
+      </c>
+      <c r="N14" s="8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8">
+        <v>34.159999999999997</v>
+      </c>
+      <c r="E15" s="8">
+        <v>652</v>
+      </c>
+      <c r="F15" s="8">
+        <v>438</v>
+      </c>
+      <c r="G15" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="H15" s="8">
+        <v>34.72</v>
+      </c>
+      <c r="I15" s="8">
+        <v>645</v>
+      </c>
+      <c r="J15" s="8">
+        <v>403</v>
+      </c>
+      <c r="K15" s="8">
+        <v>12</v>
+      </c>
+      <c r="L15" s="11">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="M15" s="8">
+        <v>619</v>
+      </c>
+      <c r="N15" s="8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="E16" s="8">
+        <v>610</v>
+      </c>
+      <c r="F16" s="8">
+        <v>435</v>
+      </c>
+      <c r="G16" s="8">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8">
+        <v>32.94</v>
+      </c>
+      <c r="I16" s="8">
+        <v>608</v>
+      </c>
+      <c r="J16" s="8">
+        <v>404</v>
+      </c>
+      <c r="K16" s="8">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11">
+        <v>30.4</v>
+      </c>
+      <c r="M16" s="8">
+        <v>588</v>
+      </c>
+      <c r="N16" s="8">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lab7/lab7-yo.xlsx
+++ b/lab7/lab7-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F2E22C-AF01-47F7-AA58-8F403FE3D114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB0FEA8-237F-4386-9D01-7FE2A2E9FFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0CC3805-AC8E-40F5-BA8D-7020D17EC853}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -109,13 +109,44 @@
   <si>
     <t>m</t>
   </si>
+  <si>
+    <t xml:space="preserve">A1 </t>
+  </si>
+  <si>
+    <t>mm2</t>
+  </si>
+  <si>
+    <t>Q m3/s</t>
+  </si>
+  <si>
+    <t>v m/s</t>
+  </si>
+  <si>
+    <t>Hf/L</t>
+  </si>
+  <si>
+    <t>log(Hf/L)</t>
+  </si>
+  <si>
+    <t>log v</t>
+  </si>
+  <si>
+    <t>Hf m</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="187" formatCode="0.0"/>
+    <numFmt numFmtId="191" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -227,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,7 +290,22 @@
     <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,15 +622,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBE7EE-F248-49DA-9638-1D85BBA26B11}">
-  <dimension ref="B3:N16"/>
+  <dimension ref="B3:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.796875" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -618,8 +668,29 @@
       <c r="N3" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>L3</f>
+        <v>16.3</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="16">
+        <f>PI()*(Q3^2)/4</f>
+        <v>208.67243803306803</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
@@ -651,8 +722,29 @@
       <c r="N4" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -684,8 +776,35 @@
         <v>8</v>
       </c>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>(K7*10^-3)/L7</f>
+        <v>5.8394160583941611E-4</v>
+      </c>
+      <c r="R5" s="14">
+        <f>Q5/U$3</f>
+        <v>2.7983648024799502E-6</v>
+      </c>
+      <c r="S5" s="15">
+        <f>(M7-N7)/1000</f>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="T5" s="15">
+        <f>S5/L$4</f>
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="U5" s="15">
+        <f>LOG(T5)</f>
+        <v>-0.2846653162076872</v>
+      </c>
+      <c r="V5" s="12">
+        <f>LOG(R5)</f>
+        <v>-5.5530956703385499</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -711,12 +830,39 @@
       <c r="N6" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" ref="Q6:Q14" si="0">(K8*10^-3)/L8</f>
+        <v>5.5632823365785807E-4</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" ref="R6:R14" si="1">Q6/U$3</f>
+        <v>2.6660360079259606E-6</v>
+      </c>
+      <c r="S6" s="15">
+        <f t="shared" ref="S6:S14" si="2">(M8-N8)/1000</f>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="T6" s="15">
+        <f t="shared" ref="T6:T14" si="3">S6/L$4</f>
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" ref="U6:U14" si="4">LOG(T6)</f>
+        <v>-0.31803554100531689</v>
+      </c>
+      <c r="V6" s="12">
+        <f t="shared" ref="V6:V14" si="5">LOG(R6)</f>
+        <v>-5.5741339892290069</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <v>30</v>
       </c>
       <c r="D7" s="8">
@@ -728,7 +874,7 @@
       <c r="F7" s="8">
         <v>428</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="11">
         <v>25</v>
       </c>
       <c r="H7" s="8">
@@ -740,10 +886,10 @@
       <c r="J7" s="8">
         <v>375</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="11">
         <v>20</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="12">
         <v>34.25</v>
       </c>
       <c r="M7" s="8">
@@ -752,12 +898,39 @@
       <c r="N7" s="8">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="0"/>
+        <v>5.554012774229381E-4</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="1"/>
+        <v>2.6615938485125881E-6</v>
+      </c>
+      <c r="S7" s="15">
+        <f t="shared" si="2"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="T7" s="15">
+        <f t="shared" si="3"/>
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.344093581819785</v>
+      </c>
+      <c r="V7" s="12">
+        <f t="shared" si="5"/>
+        <v>-5.5748582158813909</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>30</v>
       </c>
       <c r="D8" s="8">
@@ -769,7 +942,7 @@
       <c r="F8" s="8">
         <v>433</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="11">
         <v>25</v>
       </c>
       <c r="H8" s="8">
@@ -781,10 +954,10 @@
       <c r="J8" s="8">
         <v>381</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="11">
         <v>20</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="12">
         <v>35.950000000000003</v>
       </c>
       <c r="M8" s="8">
@@ -793,12 +966,39 @@
       <c r="N8" s="8">
         <v>266</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="0"/>
+        <v>5.433228481555619E-4</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="1"/>
+        <v>2.6037116031081318E-6</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="2"/>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.37592426885431734</v>
+      </c>
+      <c r="V8" s="12">
+        <f t="shared" si="5"/>
+        <v>-5.5844071215305027</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>3</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="11">
         <v>30</v>
       </c>
       <c r="D9" s="8">
@@ -810,7 +1010,7 @@
       <c r="F9" s="8">
         <v>437</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="11">
         <v>22.5</v>
       </c>
       <c r="H9" s="8">
@@ -822,10 +1022,10 @@
       <c r="J9" s="8">
         <v>386</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="11">
         <v>20</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="12">
         <v>36.01</v>
       </c>
       <c r="M9" s="8">
@@ -834,12 +1034,39 @@
       <c r="N9" s="8">
         <v>274</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="0"/>
+        <v>5.0385299347954955E-4</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="1"/>
+        <v>2.4145641764136797E-6</v>
+      </c>
+      <c r="S9" s="15">
+        <f t="shared" si="2"/>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="T9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.37919999999999998</v>
+      </c>
+      <c r="U9" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.42113167133397139</v>
+      </c>
+      <c r="V9" s="12">
+        <f t="shared" si="5"/>
+        <v>-5.6171612470489194</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>4</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>30</v>
       </c>
       <c r="D10" s="8">
@@ -851,7 +1078,7 @@
       <c r="F10" s="8">
         <v>438</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11">
         <v>25</v>
       </c>
       <c r="H10" s="8">
@@ -863,10 +1090,10 @@
       <c r="J10" s="8">
         <v>390</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="11">
         <v>19</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="12">
         <v>34.97</v>
       </c>
       <c r="M10" s="8">
@@ -875,12 +1102,39 @@
       <c r="N10" s="8">
         <v>284</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="0"/>
+        <v>4.755865567533291E-4</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="1"/>
+        <v>2.2791057661288433E-6</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="2"/>
+        <v>0.432</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="3"/>
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.46142626619314431</v>
+      </c>
+      <c r="V10" s="12">
+        <f t="shared" si="5"/>
+        <v>-5.6422355201112895</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>5</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="11">
         <v>25</v>
       </c>
       <c r="D11" s="8">
@@ -892,7 +1146,7 @@
       <c r="F11" s="8">
         <v>441</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="11">
         <v>22.5</v>
       </c>
       <c r="H11" s="8">
@@ -904,10 +1158,10 @@
       <c r="J11" s="8">
         <v>394</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="11">
         <v>17</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="12">
         <v>33.74</v>
       </c>
       <c r="M11" s="8">
@@ -916,12 +1170,39 @@
       <c r="N11" s="8">
         <v>296</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P11" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="0"/>
+        <v>4.2052144659377626E-4</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="1"/>
+        <v>2.0152227604066082E-6</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="3"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.51598503733243706</v>
+      </c>
+      <c r="V11" s="12">
+        <f t="shared" si="5"/>
+        <v>-5.6956769404567602</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>6</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="11">
         <v>25</v>
       </c>
       <c r="D12" s="8">
@@ -933,7 +1214,7 @@
       <c r="F12" s="8">
         <v>442</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="11">
         <v>20</v>
       </c>
       <c r="H12" s="8">
@@ -945,10 +1226,10 @@
       <c r="J12" s="8">
         <v>398</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="11">
         <v>15</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="12">
         <v>31.54</v>
       </c>
       <c r="M12" s="8">
@@ -957,12 +1238,39 @@
       <c r="N12" s="8">
         <v>306</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="0"/>
+        <v>4.1296060991105469E-4</v>
+      </c>
+      <c r="R12" s="14">
+        <f t="shared" si="1"/>
+        <v>1.9789897209405941E-6</v>
+      </c>
+      <c r="S12" s="15">
+        <f t="shared" si="2"/>
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="3"/>
+        <v>0.26480000000000004</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.5770820192323376</v>
+      </c>
+      <c r="V12" s="12">
+        <f t="shared" si="5"/>
+        <v>-5.7035564615542773</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>7</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="11">
         <v>25</v>
       </c>
       <c r="D13" s="8">
@@ -974,7 +1282,7 @@
       <c r="F13" s="8">
         <v>442</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="11">
         <v>20</v>
       </c>
       <c r="H13" s="8">
@@ -986,10 +1294,10 @@
       <c r="J13" s="8">
         <v>400</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="11">
         <v>15</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="12">
         <v>35.67</v>
       </c>
       <c r="M13" s="8">
@@ -998,12 +1306,39 @@
       <c r="N13" s="8">
         <v>317</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P13" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" si="0"/>
+        <v>3.7232392181197645E-4</v>
+      </c>
+      <c r="R13" s="14">
+        <f t="shared" si="1"/>
+        <v>1.7842505954378833E-6</v>
+      </c>
+      <c r="S13" s="15">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T13" s="15">
+        <f t="shared" si="3"/>
+        <v>0.22400000000000003</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.64975198166583714</v>
+      </c>
+      <c r="V13" s="12">
+        <f t="shared" si="5"/>
+        <v>-5.7485441496387963</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>8</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="11">
         <v>20</v>
       </c>
       <c r="D14" s="8">
@@ -1015,7 +1350,7 @@
       <c r="F14" s="8">
         <v>440</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="11">
         <v>20</v>
       </c>
       <c r="H14" s="8">
@@ -1027,10 +1362,10 @@
       <c r="J14" s="8">
         <v>401</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="11">
         <v>13</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="12">
         <v>31.48</v>
       </c>
       <c r="M14" s="8">
@@ -1039,12 +1374,39 @@
       <c r="N14" s="8">
         <v>329</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P14" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="0"/>
+        <v>3.2894736842105268E-4</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="1"/>
+        <v>1.5763814882391168E-6</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="3"/>
+        <v>0.192</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.71669877129645043</v>
+      </c>
+      <c r="V14" s="12">
+        <f t="shared" si="5"/>
+        <v>-5.8023386737828408</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>9</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <v>20</v>
       </c>
       <c r="D15" s="8">
@@ -1056,7 +1418,7 @@
       <c r="F15" s="8">
         <v>438</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="11">
         <v>17.5</v>
       </c>
       <c r="H15" s="8">
@@ -1068,10 +1430,10 @@
       <c r="J15" s="8">
         <v>403</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="11">
         <v>12</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="12">
         <v>32.229999999999997</v>
       </c>
       <c r="M15" s="8">
@@ -1081,11 +1443,11 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>10</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="11">
         <v>20</v>
       </c>
       <c r="D16" s="8">
@@ -1097,7 +1459,7 @@
       <c r="F16" s="8">
         <v>435</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="11">
         <v>15</v>
       </c>
       <c r="H16" s="8">
@@ -1109,10 +1471,10 @@
       <c r="J16" s="8">
         <v>404</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="11">
         <v>10</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="12">
         <v>30.4</v>
       </c>
       <c r="M16" s="8">
@@ -1122,12 +1484,663 @@
         <v>348</v>
       </c>
     </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <f>D3</f>
+        <v>20.5</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="16">
+        <f>PI()*(C19^2)/4</f>
+        <v>330.06357816777762</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="9">
+        <f>H3</f>
+        <v>17</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="16">
+        <f>PI()*(K19^2)/4</f>
+        <v>226.98006922186255</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
+        <f>(C7*10^-3)/D7</f>
+        <v>8.9126559714795015E-4</v>
+      </c>
+      <c r="D21" s="14">
+        <f>C21/G$19</f>
+        <v>2.7002846000018298E-6</v>
+      </c>
+      <c r="E21" s="15">
+        <f>(E7-F7)/1000</f>
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="F21" s="15">
+        <f>E21/D$4</f>
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="G21" s="15">
+        <f>LOG(F21)</f>
+        <v>-0.42296801437396864</v>
+      </c>
+      <c r="H21" s="12">
+        <f>LOG(D21)</f>
+        <v>-5.5685904603978225</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
+        <f>(G7*10^-3)/H7</f>
+        <v>7.4872716382150348E-4</v>
+      </c>
+      <c r="L21" s="14">
+        <f>K21/O$19</f>
+        <v>3.2986471736849159E-6</v>
+      </c>
+      <c r="M21" s="15">
+        <f>(I7-J7)/1000</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N21" s="15">
+        <f>M21/H$4</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="O21" s="15">
+        <f>LOG(N21)</f>
+        <v>-0.3767507096020995</v>
+      </c>
+      <c r="P21" s="12">
+        <f>LOG(L21)</f>
+        <v>-5.4816641345050527</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" ref="C22:C30" si="6">(C8*10^-3)/D8</f>
+        <v>8.4721829991527822E-4</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" ref="D22:D30" si="7">C22/G$19</f>
+        <v>2.5668336525292743E-6</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" ref="E22:E30" si="8">(E8-F8)/1000</f>
+        <v>0.437</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" ref="F22:F30" si="9">E22/D$4</f>
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" ref="G22:G30" si="10">LOG(F22)</f>
+        <v>-0.45642857603763454</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" ref="H22:H30" si="11">LOG(D22)</f>
+        <v>-5.5906022755161286</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" ref="K22:K30" si="12">(G8*10^-3)/H8</f>
+        <v>7.4161969741916344E-4</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" ref="L22:L30" si="13">K22/O$19</f>
+        <v>3.2673339996837536E-6</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" ref="M22:M30" si="14">(I8-J8)/1000</f>
+        <v>0.49</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" ref="N22:N30" si="15">M22/H$4</f>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" ref="O22:O30" si="16">LOG(N22)</f>
+        <v>-0.40671393297954272</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" ref="P22:P30" si="17">LOG(L22)</f>
+        <v>-5.4858064679716536</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="6"/>
+        <v>8.1168831168831163E-4</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="7"/>
+        <v>2.4591877607159518E-6</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="8"/>
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="9"/>
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.49160496686694694</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="11"/>
+        <v>-5.6092083113060864</v>
+      </c>
+      <c r="J23" s="8">
+        <v>3</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="12"/>
+        <v>6.8997240110395578E-4</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="13"/>
+        <v>3.0397928922540753E-6</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="14"/>
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="15"/>
+        <v>0.36160000000000003</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="16"/>
+        <v>-0.44177157819667429</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.5171560048173136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>4</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="6"/>
+        <v>7.816571130797289E-4</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="7"/>
+        <v>2.3682016580526727E-6</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="8"/>
+        <v>0.371</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="9"/>
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.52753610339301049</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="11"/>
+        <v>-5.6255813191574706</v>
+      </c>
+      <c r="J24" s="8">
+        <v>4</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="12"/>
+        <v>6.7512827437213069E-4</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="13"/>
+        <v>2.9743945214512379E-6</v>
+      </c>
+      <c r="M24" s="15">
+        <f t="shared" si="14"/>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="15"/>
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="O24" s="15">
+        <f t="shared" si="16"/>
+        <v>-0.47573373123302126</v>
+      </c>
+      <c r="P24" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.5266014275001245</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>5</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="6"/>
+        <v>7.2212593876372052E-4</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="7"/>
+        <v>2.1878389090136148E-6</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="8"/>
+        <v>0.34</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="9"/>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.56543109596580121</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="11"/>
+        <v>-5.6599846583450173</v>
+      </c>
+      <c r="J25" s="8">
+        <v>5</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="12"/>
+        <v>6.4340863597369172E-4</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="13"/>
+        <v>2.834648161750226E-6</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="14"/>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="15"/>
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="O25" s="15">
+        <f t="shared" si="16"/>
+        <v>-0.50919904798914506</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.5475008383206017</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <v>6</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="6"/>
+        <v>7.1942446043165469E-4</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="7"/>
+        <v>2.1796541879151463E-6</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="8"/>
+        <v>0.308</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="9"/>
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.60835929650761211</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="11"/>
+        <v>-5.661612403731775</v>
+      </c>
+      <c r="J26" s="8">
+        <v>6</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="12"/>
+        <v>6.1124694376528117E-4</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="13"/>
+        <v>2.6929542574410597E-6</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="14"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="15"/>
+        <v>0.27360000000000001</v>
+      </c>
+      <c r="O26" s="15">
+        <f t="shared" si="16"/>
+        <v>-0.56288390695192136</v>
+      </c>
+      <c r="P26" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.5697710234580233</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
+        <f t="shared" si="6"/>
+        <v>6.860592755214051E-4</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" si="7"/>
+        <v>2.0785670425370837E-6</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="8"/>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="9"/>
+        <v>0.2152</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.6671577330056484</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="11"/>
+        <v>-5.6822359631066028</v>
+      </c>
+      <c r="J27" s="8">
+        <v>7</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="12"/>
+        <v>5.6625141562853911E-4</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="13"/>
+        <v>2.4947186665762028E-6</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="14"/>
+        <v>0.309</v>
+      </c>
+      <c r="N27" s="15">
+        <f t="shared" si="15"/>
+        <v>0.2472</v>
+      </c>
+      <c r="O27" s="15">
+        <f t="shared" si="16"/>
+        <v>-0.60695153358322174</v>
+      </c>
+      <c r="P27" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.6029784233642692</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
+        <v>8</v>
+      </c>
+      <c r="C28" s="14">
+        <f t="shared" si="6"/>
+        <v>6.1977068484660668E-4</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" si="7"/>
+        <v>1.8777312185943927E-6</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="8"/>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1928</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.714892970433188</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="11"/>
+        <v>-5.7263665732176037</v>
+      </c>
+      <c r="J28" s="8">
+        <v>8</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="12"/>
+        <v>5.3504547886570354E-4</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="13"/>
+        <v>2.3572355083860743E-6</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="14"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="N28" s="15">
+        <f t="shared" si="15"/>
+        <v>0.22160000000000002</v>
+      </c>
+      <c r="O28" s="15">
+        <f t="shared" si="16"/>
+        <v>-0.65443024394360783</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.6275970255015517</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>9</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" si="6"/>
+        <v>5.854800936768151E-4</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="7"/>
+        <v>1.7738403519918347E-6</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="8"/>
+        <v>0.214</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="9"/>
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.7664962396588656</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" si="11"/>
+        <v>-5.7510854698306666</v>
+      </c>
+      <c r="J29" s="8">
+        <v>9</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="12"/>
+        <v>5.0403225806451622E-4</v>
+      </c>
+      <c r="L29" s="14">
+        <f t="shared" si="13"/>
+        <v>2.2206013937366805E-6</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="14"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="15"/>
+        <v>0.19359999999999999</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="16"/>
+        <v>-0.71309464702762515</v>
+      </c>
+      <c r="P29" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.6535293919408787</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>10</v>
+      </c>
+      <c r="C30" s="14">
+        <f t="shared" si="6"/>
+        <v>5.2260256075254764E-4</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" si="7"/>
+        <v>1.5833390756216632E-6</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="8"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="9"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.85387196432176204</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="11"/>
+        <v>-5.8004260700381982</v>
+      </c>
+      <c r="J30" s="8">
+        <v>10</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="12"/>
+        <v>4.5537340619307832E-4</v>
+      </c>
+      <c r="L30" s="14">
+        <f t="shared" si="13"/>
+        <v>2.0062263957985307E-6</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="14"/>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="15"/>
+        <v>0.16319999999999998</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="16"/>
+        <v>-0.78727984558215769</v>
+      </c>
+      <c r="P30" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.6976200599007738</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:J5"/>

--- a/lab7/lab7-yo.xlsx
+++ b/lab7/lab7-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB0FEA8-237F-4386-9D01-7FE2A2E9FFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA379352-75AD-46EC-8AF8-F24403224B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0CC3805-AC8E-40F5-BA8D-7020D17EC853}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -138,6 +138,54 @@
   </si>
   <si>
     <t>A3</t>
+  </si>
+  <si>
+    <t>x log v</t>
+  </si>
+  <si>
+    <t>y log H/L</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>ความสัมพันธ์</t>
+  </si>
+  <si>
+    <t>Xbar</t>
+  </si>
+  <si>
+    <t>Ybar</t>
+  </si>
+  <si>
+    <t>log C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Darcy-Weisbach eq</t>
+  </si>
+  <si>
+    <t>Hazen-William eq</t>
+  </si>
+  <si>
+    <t>m ทฤษฎี</t>
+  </si>
+  <si>
+    <t>m ทดลอง</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>CHW</t>
   </si>
 </sst>
 </file>
@@ -258,10 +306,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +364,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,1519 +682,2364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBE7EE-F248-49DA-9638-1D85BBA26B11}">
-  <dimension ref="B3:V30"/>
+  <dimension ref="B3:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.796875" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>20.5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="12">
         <v>17</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="12">
         <v>16.3</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="13"/>
+      <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="12">
         <f>L3</f>
         <v>16.3</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="8" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="19">
         <f>PI()*(Q3^2)/4</f>
         <v>208.67243803306803</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>1.25</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>1.25</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="7">
         <v>1.25</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="P5" s="8">
+      <c r="N5" s="8"/>
+      <c r="P5" s="11">
         <v>1</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="17">
         <f>(K7*10^-3)/L7</f>
         <v>5.8394160583941611E-4</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="17">
         <f>Q5/U$3</f>
         <v>2.7983648024799502E-6</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="18">
         <f>(M7-N7)/1000</f>
         <v>0.64900000000000002</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="18">
         <f>S5/L$4</f>
         <v>0.51919999999999999</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="18">
         <f>LOG(T5)</f>
         <v>-0.2846653162076872</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="15">
         <f>LOG(R5)</f>
         <v>-5.5530956703385499</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="11">
         <v>2</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="17">
         <f t="shared" ref="Q6:Q14" si="0">(K8*10^-3)/L8</f>
         <v>5.5632823365785807E-4</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="17">
         <f t="shared" ref="R6:R14" si="1">Q6/U$3</f>
         <v>2.6660360079259606E-6</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="18">
         <f t="shared" ref="S6:S14" si="2">(M8-N8)/1000</f>
         <v>0.60099999999999998</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="18">
         <f t="shared" ref="T6:T14" si="3">S6/L$4</f>
         <v>0.48080000000000001</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="18">
         <f t="shared" ref="U6:U14" si="4">LOG(T6)</f>
         <v>-0.31803554100531689</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="15">
         <f t="shared" ref="V6:V14" si="5">LOG(R6)</f>
         <v>-5.5741339892290069</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <v>30</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <v>33.659999999999997</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11">
         <v>900</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="11">
         <v>428</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <v>25</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="11">
         <v>33.39</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="11">
         <v>900</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="11">
         <v>375</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="14">
         <v>20</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="15">
         <v>34.25</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="11">
         <v>901</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="11">
         <v>252</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="11">
         <v>3</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="17">
         <f t="shared" si="0"/>
         <v>5.554012774229381E-4</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="17">
         <f t="shared" si="1"/>
         <v>2.6615938485125881E-6</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="18">
         <f t="shared" si="2"/>
         <v>0.56599999999999995</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="18">
         <f t="shared" si="3"/>
         <v>0.45279999999999998</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="18">
         <f t="shared" si="4"/>
         <v>-0.344093581819785</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="15">
         <f t="shared" si="5"/>
         <v>-5.5748582158813909</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="14">
         <v>30</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>35.409999999999997</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>870</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="11">
         <v>433</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="14">
         <v>25</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="11">
         <v>33.71</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="11">
         <v>871</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="11">
         <v>381</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="14">
         <v>20</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="15">
         <v>35.950000000000003</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="11">
         <v>867</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="11">
         <v>266</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="11">
         <v>4</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="17">
         <f t="shared" si="0"/>
         <v>5.433228481555619E-4</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="17">
         <f t="shared" si="1"/>
         <v>2.6037116031081318E-6</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="18">
         <f t="shared" si="2"/>
         <v>0.52600000000000002</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="18">
         <f t="shared" si="3"/>
         <v>0.42080000000000001</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="18">
         <f t="shared" si="4"/>
         <v>-0.37592426885431734</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="15">
         <f t="shared" si="5"/>
         <v>-5.5844071215305027</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="14">
         <v>30</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>36.96</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="11">
         <v>840</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="11">
         <v>437</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="14">
         <v>22.5</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="11">
         <v>32.61</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="11">
         <v>838</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="11">
         <v>386</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="14">
         <v>20</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="15">
         <v>36.01</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="11">
         <v>840</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="11">
         <v>274</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="11">
         <v>5</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="17">
         <f t="shared" si="0"/>
         <v>5.0385299347954955E-4</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="17">
         <f t="shared" si="1"/>
         <v>2.4145641764136797E-6</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="18">
         <f t="shared" si="2"/>
         <v>0.47399999999999998</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="18">
         <f t="shared" si="3"/>
         <v>0.37919999999999998</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="18">
         <f t="shared" si="4"/>
         <v>-0.42113167133397139</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="15">
         <f t="shared" si="5"/>
         <v>-5.6171612470489194</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="14">
         <v>30</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>38.380000000000003</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>809</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <v>438</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="14">
         <v>25</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="11">
         <v>37.03</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="11">
         <v>808</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="11">
         <v>390</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="14">
         <v>19</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="15">
         <v>34.97</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="11">
         <v>810</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="11">
         <v>284</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="11">
         <v>6</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="17">
         <f t="shared" si="0"/>
         <v>4.755865567533291E-4</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="17">
         <f t="shared" si="1"/>
         <v>2.2791057661288433E-6</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="18">
         <f t="shared" si="2"/>
         <v>0.432</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="18">
         <f t="shared" si="3"/>
         <v>0.34560000000000002</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="18">
         <f t="shared" si="4"/>
         <v>-0.46142626619314431</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="15">
         <f t="shared" si="5"/>
         <v>-5.6422355201112895</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="14">
         <v>25</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <v>34.619999999999997</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="11">
         <v>781</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="11">
         <v>441</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="14">
         <v>22.5</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="11">
         <v>34.97</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="11">
         <v>781</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="11">
         <v>394</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="14">
         <v>17</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="15">
         <v>33.74</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="11">
         <v>770</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="11">
         <v>296</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="11">
         <v>7</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="17">
         <f t="shared" si="0"/>
         <v>4.2052144659377626E-4</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="17">
         <f t="shared" si="1"/>
         <v>2.0152227604066082E-6</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="18">
         <f t="shared" si="2"/>
         <v>0.38100000000000001</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="18">
         <f t="shared" si="3"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="U11" s="15">
+      <c r="U11" s="18">
         <f t="shared" si="4"/>
         <v>-0.51598503733243706</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="15">
         <f t="shared" si="5"/>
         <v>-5.6956769404567602</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="14">
         <v>25</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>34.75</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="11">
         <v>750</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="11">
         <v>442</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="14">
         <v>20</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="11">
         <v>32.72</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="11">
         <v>740</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="11">
         <v>398</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="14">
         <v>15</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="15">
         <v>31.54</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="11">
         <v>738</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="11">
         <v>306</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="11">
         <v>8</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="17">
         <f t="shared" si="0"/>
         <v>4.1296060991105469E-4</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="17">
         <f t="shared" si="1"/>
         <v>1.9789897209405941E-6</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="18">
         <f t="shared" si="2"/>
         <v>0.33100000000000002</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="18">
         <f t="shared" si="3"/>
         <v>0.26480000000000004</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="18">
         <f t="shared" si="4"/>
         <v>-0.5770820192323376</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="15">
         <f t="shared" si="5"/>
         <v>-5.7035564615542773</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="14">
         <v>25</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="11">
         <v>36.44</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="11">
         <v>711</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="11">
         <v>442</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="14">
         <v>20</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="11">
         <v>35.32</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="11">
         <v>709</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="11">
         <v>400</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="14">
         <v>15</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="15">
         <v>35.67</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="11">
         <v>698</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="11">
         <v>317</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="11">
         <v>9</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="17">
         <f t="shared" si="0"/>
         <v>3.7232392181197645E-4</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="17">
         <f t="shared" si="1"/>
         <v>1.7842505954378833E-6</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="18">
         <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="18">
         <f t="shared" si="3"/>
         <v>0.22400000000000003</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="18">
         <f t="shared" si="4"/>
         <v>-0.64975198166583714</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="15">
         <f t="shared" si="5"/>
         <v>-5.7485441496387963</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="11">
         <v>8</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="14">
         <v>20</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="11">
         <v>32.270000000000003</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="11">
         <v>681</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="11">
         <v>440</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="14">
         <v>20</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="11">
         <v>37.380000000000003</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="11">
         <v>678</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="11">
         <v>401</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="14">
         <v>13</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="15">
         <v>31.48</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="11">
         <v>660</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="11">
         <v>329</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="11">
         <v>10</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="17">
         <f t="shared" si="0"/>
         <v>3.2894736842105268E-4</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="17">
         <f t="shared" si="1"/>
         <v>1.5763814882391168E-6</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="18">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
-      <c r="T14" s="15">
+      <c r="T14" s="18">
         <f t="shared" si="3"/>
         <v>0.192</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="18">
         <f t="shared" si="4"/>
         <v>-0.71669877129645043</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="15">
         <f t="shared" si="5"/>
         <v>-5.8023386737828408</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="11">
         <v>9</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="14">
         <v>20</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="11">
         <v>34.159999999999997</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="11">
         <v>652</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="11">
         <v>438</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="14">
         <v>17.5</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="11">
         <v>34.72</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="11">
         <v>645</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="11">
         <v>403</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="14">
         <v>12</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="15">
         <v>32.229999999999997</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="11">
         <v>619</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="11">
         <v>339</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="11">
         <v>10</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="14">
         <v>20</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="11">
         <v>38.270000000000003</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="11">
         <v>610</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="11">
         <v>435</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="14">
         <v>15</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="11">
         <v>32.94</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="11">
         <v>608</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="11">
         <v>404</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="14">
         <v>10</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="15">
         <v>30.4</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="11">
         <v>588</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="11">
         <v>348</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <f>D3</f>
         <v>20.5</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="19">
         <f>PI()*(C19^2)/4</f>
         <v>330.06357816777762</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="12">
         <f>H3</f>
         <v>17</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="8" t="s">
+      <c r="L19" s="8"/>
+      <c r="M19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="19">
         <f>PI()*(K19^2)/4</f>
         <v>226.98006922186255</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="B21" s="11">
         <v>1</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="17">
         <f>(C7*10^-3)/D7</f>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="17">
         <f>C21/G$19</f>
         <v>2.7002846000018298E-6</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="18">
         <f>(E7-F7)/1000</f>
         <v>0.47199999999999998</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="18">
         <f>E21/D$4</f>
         <v>0.37759999999999999</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="18">
         <f>LOG(F21)</f>
         <v>-0.42296801437396864</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="15">
         <f>LOG(D21)</f>
         <v>-5.5685904603978225</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="11">
         <v>1</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="17">
         <f>(G7*10^-3)/H7</f>
         <v>7.4872716382150348E-4</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="17">
         <f>K21/O$19</f>
         <v>3.2986471736849159E-6</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="18">
         <f>(I7-J7)/1000</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="18">
         <f>M21/H$4</f>
         <v>0.42000000000000004</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="18">
         <f>LOG(N21)</f>
         <v>-0.3767507096020995</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="15">
         <f>LOG(L21)</f>
         <v>-5.4816641345050527</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+      <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="17">
         <f t="shared" ref="C22:C30" si="6">(C8*10^-3)/D8</f>
         <v>8.4721829991527822E-4</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="17">
         <f t="shared" ref="D22:D30" si="7">C22/G$19</f>
         <v>2.5668336525292743E-6</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="18">
         <f t="shared" ref="E22:E30" si="8">(E8-F8)/1000</f>
         <v>0.437</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="18">
         <f t="shared" ref="F22:F30" si="9">E22/D$4</f>
         <v>0.34960000000000002</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="18">
         <f t="shared" ref="G22:G30" si="10">LOG(F22)</f>
         <v>-0.45642857603763454</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="15">
         <f t="shared" ref="H22:H30" si="11">LOG(D22)</f>
         <v>-5.5906022755161286</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="11">
         <v>2</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="17">
         <f t="shared" ref="K22:K30" si="12">(G8*10^-3)/H8</f>
         <v>7.4161969741916344E-4</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="17">
         <f t="shared" ref="L22:L30" si="13">K22/O$19</f>
         <v>3.2673339996837536E-6</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="18">
         <f t="shared" ref="M22:M30" si="14">(I8-J8)/1000</f>
         <v>0.49</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="18">
         <f t="shared" ref="N22:N30" si="15">M22/H$4</f>
         <v>0.39200000000000002</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="18">
         <f t="shared" ref="O22:O30" si="16">LOG(N22)</f>
         <v>-0.40671393297954272</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="15">
         <f t="shared" ref="P22:P30" si="17">LOG(L22)</f>
         <v>-5.4858064679716536</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+      <c r="B23" s="11">
         <v>3</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="17">
         <f t="shared" si="6"/>
         <v>8.1168831168831163E-4</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="17">
         <f t="shared" si="7"/>
         <v>2.4591877607159518E-6</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="18">
         <f t="shared" si="8"/>
         <v>0.40300000000000002</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="18">
         <f t="shared" si="9"/>
         <v>0.32240000000000002</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="18">
         <f t="shared" si="10"/>
         <v>-0.49160496686694694</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="15">
         <f t="shared" si="11"/>
         <v>-5.6092083113060864</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="11">
         <v>3</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="17">
         <f t="shared" si="12"/>
         <v>6.8997240110395578E-4</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="17">
         <f t="shared" si="13"/>
         <v>3.0397928922540753E-6</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="18">
         <f t="shared" si="14"/>
         <v>0.45200000000000001</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="18">
         <f t="shared" si="15"/>
         <v>0.36160000000000003</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="18">
         <f t="shared" si="16"/>
         <v>-0.44177157819667429</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="15">
         <f t="shared" si="17"/>
         <v>-5.5171560048173136</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+      <c r="B24" s="11">
         <v>4</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="17">
         <f t="shared" si="6"/>
         <v>7.816571130797289E-4</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="17">
         <f t="shared" si="7"/>
         <v>2.3682016580526727E-6</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="18">
         <f t="shared" si="8"/>
         <v>0.371</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="18">
         <f t="shared" si="9"/>
         <v>0.29680000000000001</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="18">
         <f t="shared" si="10"/>
         <v>-0.52753610339301049</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="15">
         <f t="shared" si="11"/>
         <v>-5.6255813191574706</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="11">
         <v>4</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="17">
         <f t="shared" si="12"/>
         <v>6.7512827437213069E-4</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="17">
         <f t="shared" si="13"/>
         <v>2.9743945214512379E-6</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="18">
         <f t="shared" si="14"/>
         <v>0.41799999999999998</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="18">
         <f t="shared" si="15"/>
         <v>0.33439999999999998</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="18">
         <f t="shared" si="16"/>
         <v>-0.47573373123302126</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="15">
         <f t="shared" si="17"/>
         <v>-5.5266014275001245</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+      <c r="B25" s="11">
         <v>5</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="17">
         <f t="shared" si="6"/>
         <v>7.2212593876372052E-4</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="17">
         <f t="shared" si="7"/>
         <v>2.1878389090136148E-6</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="18">
         <f t="shared" si="8"/>
         <v>0.34</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="18">
         <f t="shared" si="9"/>
         <v>0.27200000000000002</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="18">
         <f t="shared" si="10"/>
         <v>-0.56543109596580121</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="15">
         <f t="shared" si="11"/>
         <v>-5.6599846583450173</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="11">
         <v>5</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="17">
         <f t="shared" si="12"/>
         <v>6.4340863597369172E-4</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="17">
         <f t="shared" si="13"/>
         <v>2.834648161750226E-6</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="18">
         <f t="shared" si="14"/>
         <v>0.38700000000000001</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="18">
         <f t="shared" si="15"/>
         <v>0.30959999999999999</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="18">
         <f t="shared" si="16"/>
         <v>-0.50919904798914506</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="15">
         <f t="shared" si="17"/>
         <v>-5.5475008383206017</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
+      <c r="B26" s="11">
         <v>6</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="17">
         <f t="shared" si="6"/>
         <v>7.1942446043165469E-4</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="17">
         <f t="shared" si="7"/>
         <v>2.1796541879151463E-6</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="18">
         <f t="shared" si="8"/>
         <v>0.308</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="18">
         <f t="shared" si="9"/>
         <v>0.24640000000000001</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="18">
         <f t="shared" si="10"/>
         <v>-0.60835929650761211</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="15">
         <f t="shared" si="11"/>
         <v>-5.661612403731775</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="11">
         <v>6</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="17">
         <f t="shared" si="12"/>
         <v>6.1124694376528117E-4</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="17">
         <f t="shared" si="13"/>
         <v>2.6929542574410597E-6</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="18">
         <f t="shared" si="14"/>
         <v>0.34200000000000003</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="18">
         <f t="shared" si="15"/>
         <v>0.27360000000000001</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="18">
         <f t="shared" si="16"/>
         <v>-0.56288390695192136</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="15">
         <f t="shared" si="17"/>
         <v>-5.5697710234580233</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+      <c r="B27" s="11">
         <v>7</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="17">
         <f t="shared" si="6"/>
         <v>6.860592755214051E-4</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="17">
         <f t="shared" si="7"/>
         <v>2.0785670425370837E-6</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="18">
         <f t="shared" si="8"/>
         <v>0.26900000000000002</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="18">
         <f t="shared" si="9"/>
         <v>0.2152</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="18">
         <f t="shared" si="10"/>
         <v>-0.6671577330056484</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="15">
         <f t="shared" si="11"/>
         <v>-5.6822359631066028</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="11">
         <v>7</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="17">
         <f t="shared" si="12"/>
         <v>5.6625141562853911E-4</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="17">
         <f t="shared" si="13"/>
         <v>2.4947186665762028E-6</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="18">
         <f t="shared" si="14"/>
         <v>0.309</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="18">
         <f t="shared" si="15"/>
         <v>0.2472</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="18">
         <f t="shared" si="16"/>
         <v>-0.60695153358322174</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="15">
         <f t="shared" si="17"/>
         <v>-5.6029784233642692</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+      <c r="B28" s="11">
         <v>8</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="17">
         <f t="shared" si="6"/>
         <v>6.1977068484660668E-4</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="17">
         <f t="shared" si="7"/>
         <v>1.8777312185943927E-6</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="18">
         <f t="shared" si="8"/>
         <v>0.24099999999999999</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="18">
         <f t="shared" si="9"/>
         <v>0.1928</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="18">
         <f t="shared" si="10"/>
         <v>-0.714892970433188</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="15">
         <f t="shared" si="11"/>
         <v>-5.7263665732176037</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="11">
         <v>8</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="17">
         <f t="shared" si="12"/>
         <v>5.3504547886570354E-4</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="17">
         <f t="shared" si="13"/>
         <v>2.3572355083860743E-6</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="18">
         <f t="shared" si="14"/>
         <v>0.27700000000000002</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="18">
         <f t="shared" si="15"/>
         <v>0.22160000000000002</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="18">
         <f t="shared" si="16"/>
         <v>-0.65443024394360783</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="15">
         <f t="shared" si="17"/>
         <v>-5.6275970255015517</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+      <c r="B29" s="11">
         <v>9</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="17">
         <f t="shared" si="6"/>
         <v>5.854800936768151E-4</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="17">
         <f t="shared" si="7"/>
         <v>1.7738403519918347E-6</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="18">
         <f t="shared" si="8"/>
         <v>0.214</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="18">
         <f t="shared" si="9"/>
         <v>0.17119999999999999</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="18">
         <f t="shared" si="10"/>
         <v>-0.7664962396588656</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="15">
         <f t="shared" si="11"/>
         <v>-5.7510854698306666</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="11">
         <v>9</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="17">
         <f t="shared" si="12"/>
         <v>5.0403225806451622E-4</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="17">
         <f t="shared" si="13"/>
         <v>2.2206013937366805E-6</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="18">
         <f t="shared" si="14"/>
         <v>0.24199999999999999</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="18">
         <f t="shared" si="15"/>
         <v>0.19359999999999999</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="18">
         <f t="shared" si="16"/>
         <v>-0.71309464702762515</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="15">
         <f t="shared" si="17"/>
         <v>-5.6535293919408787</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
+      <c r="B30" s="11">
         <v>10</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="17">
         <f t="shared" si="6"/>
         <v>5.2260256075254764E-4</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="17">
         <f t="shared" si="7"/>
         <v>1.5833390756216632E-6</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="18">
         <f t="shared" si="8"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="18">
         <f t="shared" si="9"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="18">
         <f t="shared" si="10"/>
         <v>-0.85387196432176204</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="15">
         <f t="shared" si="11"/>
         <v>-5.8004260700381982</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="11">
         <v>10</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="17">
         <f t="shared" si="12"/>
         <v>4.5537340619307832E-4</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="17">
         <f t="shared" si="13"/>
         <v>2.0062263957985307E-6</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="18">
         <f t="shared" si="14"/>
         <v>0.20399999999999999</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="18">
         <f t="shared" si="15"/>
         <v>0.16319999999999998</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="18">
         <f t="shared" si="16"/>
         <v>-0.78727984558215769</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="15">
         <f t="shared" si="17"/>
         <v>-5.6976200599007738</v>
       </c>
     </row>
+    <row r="35" spans="2:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="12">
+        <v>17</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="12">
+        <v>16.3</v>
+      </c>
+      <c r="M35" s="13"/>
+      <c r="N35" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="15">
+        <f>H21</f>
+        <v>-5.5685904603978225</v>
+      </c>
+      <c r="D37" s="18">
+        <f>G21</f>
+        <v>-0.42296801437396864</v>
+      </c>
+      <c r="E37" s="14">
+        <f>C37^2</f>
+        <v>31.009199715633631</v>
+      </c>
+      <c r="F37" s="15">
+        <f>C37*D37</f>
+        <v>2.3553356498962907</v>
+      </c>
+      <c r="G37" s="15">
+        <f>P21</f>
+        <v>-5.4816641345050527</v>
+      </c>
+      <c r="H37" s="18">
+        <f>O21</f>
+        <v>-0.3767507096020995</v>
+      </c>
+      <c r="I37" s="14">
+        <f>G37^2</f>
+        <v>30.04864168351903</v>
+      </c>
+      <c r="J37" s="15">
+        <f>G37*H37</f>
+        <v>2.0652208524751572</v>
+      </c>
+      <c r="K37" s="15">
+        <f>V5</f>
+        <v>-5.5530956703385499</v>
+      </c>
+      <c r="L37" s="18">
+        <f>U5</f>
+        <v>-0.2846653162076872</v>
+      </c>
+      <c r="M37" s="14">
+        <f>K37^2</f>
+        <v>30.83687152393275</v>
+      </c>
+      <c r="N37" s="15">
+        <f>K37*L37</f>
+        <v>1.5807737349284621</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <v>2</v>
+      </c>
+      <c r="C38" s="15">
+        <f t="shared" ref="C38:C47" si="18">H22</f>
+        <v>-5.5906022755161286</v>
+      </c>
+      <c r="D38" s="18">
+        <f t="shared" ref="D38:D46" si="19">G22</f>
+        <v>-0.45642857603763454</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" ref="E38:E46" si="20">C38^2</f>
+        <v>31.254833803006115</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" ref="F38:F46" si="21">C38*D38</f>
+        <v>2.551710635806586</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" ref="G38:G46" si="22">P22</f>
+        <v>-5.4858064679716536</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" ref="H38:H46" si="23">O22</f>
+        <v>-0.40671393297954272</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" ref="I38:I46" si="24">G38^2</f>
+        <v>30.094072604039628</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" ref="J38:J46" si="25">G38*H38</f>
+        <v>2.2311539241533653</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" ref="K38:K46" si="26">V6</f>
+        <v>-5.5741339892290069</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" ref="L38:L46" si="27">U6</f>
+        <v>-0.31803554100531689</v>
+      </c>
+      <c r="M38" s="14">
+        <f t="shared" ref="M38:M46" si="28">K38^2</f>
+        <v>31.070969729878083</v>
+      </c>
+      <c r="N38" s="15">
+        <f t="shared" ref="N38:N46" si="29">K38*L38</f>
+        <v>1.7727727189005724</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>3</v>
+      </c>
+      <c r="C39" s="15">
+        <f t="shared" si="18"/>
+        <v>-5.6092083113060864</v>
+      </c>
+      <c r="D39" s="18">
+        <f t="shared" si="19"/>
+        <v>-0.49160496686694694</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="20"/>
+        <v>31.463217879625279</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="21"/>
+        <v>2.7575146660294321</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" si="22"/>
+        <v>-5.5171560048173136</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="23"/>
+        <v>-0.44177157819667429</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="24"/>
+        <v>30.439010381491741</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="25"/>
+        <v>2.4373227154054029</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="26"/>
+        <v>-5.5748582158813909</v>
+      </c>
+      <c r="L39" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.344093581819785</v>
+      </c>
+      <c r="M39" s="14">
+        <f t="shared" si="28"/>
+        <v>31.079044127180243</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" si="29"/>
+        <v>1.9182729316400839</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>4</v>
+      </c>
+      <c r="C40" s="15">
+        <f t="shared" si="18"/>
+        <v>-5.6255813191574706</v>
+      </c>
+      <c r="D40" s="18">
+        <f t="shared" si="19"/>
+        <v>-0.52753610339301049</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="20"/>
+        <v>31.647165178453506</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" si="21"/>
+        <v>2.967697248428844</v>
+      </c>
+      <c r="G40" s="15">
+        <f t="shared" si="22"/>
+        <v>-5.5266014275001245</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="23"/>
+        <v>-0.47573373123302126</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="24"/>
+        <v>30.543323338446413</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="25"/>
+        <v>2.6291907181423757</v>
+      </c>
+      <c r="K40" s="15">
+        <f t="shared" si="26"/>
+        <v>-5.5844071215305027</v>
+      </c>
+      <c r="L40" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.37592426885431734</v>
+      </c>
+      <c r="M40" s="14">
+        <f t="shared" si="28"/>
+        <v>31.185602899000596</v>
+      </c>
+      <c r="N40" s="15">
+        <f t="shared" si="29"/>
+        <v>2.0993141641461972</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
+        <v>5</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="18"/>
+        <v>-5.6599846583450173</v>
+      </c>
+      <c r="D41" s="18">
+        <f t="shared" si="19"/>
+        <v>-0.56543109596580121</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="20"/>
+        <v>32.035426332700965</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="21"/>
+        <v>3.200331328517644</v>
+      </c>
+      <c r="G41" s="15">
+        <f t="shared" si="22"/>
+        <v>-5.5475008383206017</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="23"/>
+        <v>-0.50919904798914506</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="24"/>
+        <v>30.774765551167778</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="25"/>
+        <v>2.8247821455918345</v>
+      </c>
+      <c r="K41" s="15">
+        <f t="shared" si="26"/>
+        <v>-5.6171612470489194</v>
+      </c>
+      <c r="L41" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.42113167133397139</v>
+      </c>
+      <c r="M41" s="14">
+        <f t="shared" si="28"/>
+        <v>31.552500475348172</v>
+      </c>
+      <c r="N41" s="15">
+        <f t="shared" si="29"/>
+        <v>2.3655645041221263</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
+        <v>6</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" si="18"/>
+        <v>-5.661612403731775</v>
+      </c>
+      <c r="D42" s="18">
+        <f t="shared" si="19"/>
+        <v>-0.60835929650761211</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="20"/>
+        <v>32.053855010089485</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="21"/>
+        <v>3.4442945390330335</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="22"/>
+        <v>-5.5697710234580233</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="23"/>
+        <v>-0.56288390695192136</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="24"/>
+        <v>31.022349253752637</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="25"/>
+        <v>3.1351344745116538</v>
+      </c>
+      <c r="K42" s="15">
+        <f t="shared" si="26"/>
+        <v>-5.6422355201112895</v>
+      </c>
+      <c r="L42" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.46142626619314431</v>
+      </c>
+      <c r="M42" s="14">
+        <f t="shared" si="28"/>
+        <v>31.834821664405514</v>
+      </c>
+      <c r="N42" s="15">
+        <f t="shared" si="29"/>
+        <v>2.603475669027286</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
+        <v>7</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="18"/>
+        <v>-5.6822359631066028</v>
+      </c>
+      <c r="D43" s="18">
+        <f t="shared" si="19"/>
+        <v>-0.6671577330056484</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="20"/>
+        <v>32.287805540422021</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="21"/>
+        <v>3.7909476635493684</v>
+      </c>
+      <c r="G43" s="15">
+        <f t="shared" si="22"/>
+        <v>-5.6029784233642692</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="23"/>
+        <v>-0.60695153358322174</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="24"/>
+        <v>31.393367212685551</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="25"/>
+        <v>3.4007363466946452</v>
+      </c>
+      <c r="K43" s="15">
+        <f t="shared" si="26"/>
+        <v>-5.6956769404567602</v>
+      </c>
+      <c r="L43" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.51598503733243706</v>
+      </c>
+      <c r="M43" s="14">
+        <f t="shared" si="28"/>
+        <v>32.440735810050882</v>
+      </c>
+      <c r="N43" s="15">
+        <f t="shared" si="29"/>
+        <v>2.9388840787550823</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <v>8</v>
+      </c>
+      <c r="C44" s="15">
+        <f t="shared" si="18"/>
+        <v>-5.7263665732176037</v>
+      </c>
+      <c r="D44" s="18">
+        <f t="shared" si="19"/>
+        <v>-0.714892970433188</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="20"/>
+        <v>32.791274130863918</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="21"/>
+        <v>4.0937392093168485</v>
+      </c>
+      <c r="G44" s="15">
+        <f t="shared" si="22"/>
+        <v>-5.6275970255015517</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="23"/>
+        <v>-0.65443024394360783</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="24"/>
+        <v>31.669848281433911</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="25"/>
+        <v>3.6828696942153023</v>
+      </c>
+      <c r="K44" s="15">
+        <f t="shared" si="26"/>
+        <v>-5.7035564615542773</v>
+      </c>
+      <c r="L44" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.5770820192323376</v>
+      </c>
+      <c r="M44" s="14">
+        <f t="shared" si="28"/>
+        <v>32.530556310137548</v>
+      </c>
+      <c r="N44" s="15">
+        <f t="shared" si="29"/>
+        <v>3.2914198796393888</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <v>9</v>
+      </c>
+      <c r="C45" s="15">
+        <f t="shared" si="18"/>
+        <v>-5.7510854698306666</v>
+      </c>
+      <c r="D45" s="18">
+        <f t="shared" si="19"/>
+        <v>-0.7664962396588656</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="20"/>
+        <v>33.074984081297416</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="21"/>
+        <v>4.4081853865819465</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="22"/>
+        <v>-5.6535293919408787</v>
+      </c>
+      <c r="H45" s="18">
+        <f t="shared" si="23"/>
+        <v>-0.71309464702762515</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="24"/>
+        <v>31.9623945855394</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="25"/>
+        <v>4.0315015462063855</v>
+      </c>
+      <c r="K45" s="15">
+        <f t="shared" si="26"/>
+        <v>-5.7485441496387963</v>
+      </c>
+      <c r="L45" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.64975198166583714</v>
+      </c>
+      <c r="M45" s="14">
+        <f t="shared" si="28"/>
+        <v>33.045759840346435</v>
+      </c>
+      <c r="N45" s="15">
+        <f t="shared" si="29"/>
+        <v>3.7351279529213626</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
+        <v>10</v>
+      </c>
+      <c r="C46" s="15">
+        <f t="shared" si="18"/>
+        <v>-5.8004260700381982</v>
+      </c>
+      <c r="D46" s="18">
+        <f t="shared" si="19"/>
+        <v>-0.85387196432176204</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="20"/>
+        <v>33.644942593978776</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="21"/>
+        <v>4.9528212023266747</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="22"/>
+        <v>-5.6976200599007738</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="23"/>
+        <v>-0.78727984558215769</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="24"/>
+        <v>32.462874346983696</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="25"/>
+        <v>4.4856214409444854</v>
+      </c>
+      <c r="K46" s="15">
+        <f t="shared" si="26"/>
+        <v>-5.8023386737828408</v>
+      </c>
+      <c r="L46" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.71669877129645043</v>
+      </c>
+      <c r="M46" s="14">
+        <f t="shared" si="28"/>
+        <v>33.667134085276018</v>
+      </c>
+      <c r="N46" s="15">
+        <f t="shared" si="29"/>
+        <v>4.1585289981460374</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="15">
+        <f>SUM(C37:C46)</f>
+        <v>-56.67569350464737</v>
+      </c>
+      <c r="D47" s="18">
+        <f>SUM(D37:D46)</f>
+        <v>-6.074746960564438</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" ref="E47:F47" si="30">SUM(E37:E46)</f>
+        <v>321.26270426607113</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="30"/>
+        <v>34.522577529486668</v>
+      </c>
+      <c r="G47" s="15">
+        <f>SUM(G37:G46)</f>
+        <v>-55.71022479728024</v>
+      </c>
+      <c r="H47" s="18">
+        <f>SUM(H37:H46)</f>
+        <v>-5.5348091770890164</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" ref="I47" si="31">SUM(I37:I46)</f>
+        <v>310.41064723905981</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" ref="J47" si="32">SUM(J37:J46)</f>
+        <v>30.923533858340608</v>
+      </c>
+      <c r="K47" s="15">
+        <f>SUM(K37:K46)</f>
+        <v>-56.496007989572334</v>
+      </c>
+      <c r="L47" s="18">
+        <f>SUM(L37:L46)</f>
+        <v>-4.6647944549412843</v>
+      </c>
+      <c r="M47" s="14">
+        <f t="shared" ref="M47" si="33">SUM(M37:M46)</f>
+        <v>319.24399646555622</v>
+      </c>
+      <c r="N47" s="15">
+        <f t="shared" ref="N47" si="34">SUM(N37:N46)</f>
+        <v>26.464134632226603</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <f>D35</f>
+        <v>20.5</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="15">
+        <f>C47/10</f>
+        <v>-5.6675693504647366</v>
+      </c>
+      <c r="E52" s="18">
+        <f>D47/10</f>
+        <v>-0.60747469605644377</v>
+      </c>
+      <c r="F52" s="15">
+        <f>((F47/10)-(D52*E52))/((E47/10)-(D52^2))</f>
+        <v>1.8978539864965629</v>
+      </c>
+      <c r="G52" s="14">
+        <f>E52-F52*D52</f>
+        <v>10.148744389468792</v>
+      </c>
+      <c r="H52" s="19">
+        <f>10^G52</f>
+        <v>14084595844.090744</v>
+      </c>
+      <c r="I52" s="11">
+        <v>2</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="20">
+        <f>H35</f>
+        <v>17</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="15">
+        <f>G47/10</f>
+        <v>-5.5710224797280237</v>
+      </c>
+      <c r="E53" s="18">
+        <f>H47/10</f>
+        <v>-0.55348091770890162</v>
+      </c>
+      <c r="F53" s="15">
+        <f>((J47/10)-(D53*E53))/((I47/10)-(D53^2))</f>
+        <v>1.8642943937283878</v>
+      </c>
+      <c r="G53" s="14">
+        <f>E53-F53*D53</f>
+        <v>9.8325450585828733</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" ref="H53:H54" si="35">10^G53</f>
+        <v>6800565980.4583483</v>
+      </c>
+      <c r="I53" s="11">
+        <v>2</v>
+      </c>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="20">
+        <f>L35</f>
+        <v>16.3</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="15">
+        <f>K47/10</f>
+        <v>-5.6496007989572332</v>
+      </c>
+      <c r="E54" s="18">
+        <f>L47/10</f>
+        <v>-0.46647944549412845</v>
+      </c>
+      <c r="F54" s="15">
+        <f>((N47/10)-(D54*E54))/((M47/10)-(D54^2))</f>
+        <v>1.7145130014293901</v>
+      </c>
+      <c r="G54" s="14">
+        <f t="shared" ref="G53:G54" si="36">E54-F54*D54</f>
+        <v>9.2198345772039172</v>
+      </c>
+      <c r="H54" s="19">
+        <f t="shared" si="35"/>
+        <v>1658954891.0529892</v>
+      </c>
+      <c r="I54" s="11">
+        <v>2</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="34">
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="L3:M3"/>

--- a/lab7/lab7-yo.xlsx
+++ b/lab7/lab7-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA379352-75AD-46EC-8AF8-F24403224B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B76217-E433-42C3-86B8-3DEE127D36CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0CC3805-AC8E-40F5-BA8D-7020D17EC853}"/>
   </bookViews>
@@ -194,7 +194,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="191" formatCode="0.000"/>
+    <numFmt numFmtId="188" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -308,43 +308,13 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -353,20 +323,50 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBE7EE-F248-49DA-9638-1D85BBA26B11}">
   <dimension ref="B3:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -699,2342 +699,2338 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="16">
         <v>20.5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="13">
         <v>17</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="13">
         <v>16.3</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="13">
         <f>L3</f>
         <v>16.3</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="11" t="s">
+      <c r="R3" s="14"/>
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="8">
         <f>PI()*(Q3^2)/4</f>
         <v>208.67243803306803</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="16">
         <v>1.25</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="16">
         <v>1.25</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="16">
         <v>1.25</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="P5" s="11">
+      <c r="N5" s="14"/>
+      <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="6">
         <f>(K7*10^-3)/L7</f>
         <v>5.8394160583941611E-4</v>
       </c>
-      <c r="R5" s="17">
-        <f>Q5/U$3</f>
-        <v>2.7983648024799502E-6</v>
-      </c>
-      <c r="S5" s="18">
+      <c r="R5" s="7">
+        <f>Q5/(U$3*10^-6)</f>
+        <v>2.7983648024799508</v>
+      </c>
+      <c r="S5" s="7">
         <f>(M7-N7)/1000</f>
         <v>0.64900000000000002</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="7">
         <f>S5/L$4</f>
         <v>0.51919999999999999</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="7">
         <f>LOG(T5)</f>
         <v>-0.2846653162076872</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="5">
         <f>LOG(R5)</f>
-        <v>-5.5530956703385499</v>
+        <v>0.44690432966144988</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="11" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="11" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="2">
         <v>2</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="6">
         <f t="shared" ref="Q6:Q14" si="0">(K8*10^-3)/L8</f>
         <v>5.5632823365785807E-4</v>
       </c>
-      <c r="R6" s="17">
-        <f t="shared" ref="R6:R14" si="1">Q6/U$3</f>
-        <v>2.6660360079259606E-6</v>
-      </c>
-      <c r="S6" s="18">
+      <c r="R6" s="7">
+        <f t="shared" ref="R6:R14" si="1">Q6/(U$3*10^-6)</f>
+        <v>2.6660360079259608</v>
+      </c>
+      <c r="S6" s="7">
         <f t="shared" ref="S6:S14" si="2">(M8-N8)/1000</f>
         <v>0.60099999999999998</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="7">
         <f t="shared" ref="T6:T14" si="3">S6/L$4</f>
         <v>0.48080000000000001</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="7">
         <f t="shared" ref="U6:U14" si="4">LOG(T6)</f>
         <v>-0.31803554100531689</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="5">
         <f t="shared" ref="V6:V14" si="5">LOG(R6)</f>
-        <v>-5.5741339892290069</v>
+        <v>0.42586601077099273</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="4">
         <v>30</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="2">
         <v>33.659999999999997</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="2">
         <v>900</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="2">
         <v>428</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="4">
         <v>25</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="2">
         <v>33.39</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="2">
         <v>900</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="2">
         <v>375</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="4">
         <v>20</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="5">
         <v>34.25</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="2">
         <v>901</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="2">
         <v>252</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="2">
         <v>3</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="6">
         <f t="shared" si="0"/>
         <v>5.554012774229381E-4</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="7">
         <f t="shared" si="1"/>
-        <v>2.6615938485125881E-6</v>
-      </c>
-      <c r="S7" s="18">
+        <v>2.6615938485125885</v>
+      </c>
+      <c r="S7" s="7">
         <f t="shared" si="2"/>
         <v>0.56599999999999995</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="7">
         <f t="shared" si="3"/>
         <v>0.45279999999999998</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="7">
         <f t="shared" si="4"/>
         <v>-0.344093581819785</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="5">
         <f t="shared" si="5"/>
-        <v>-5.5748582158813909</v>
+        <v>0.42514178411860892</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="4">
         <v>30</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="2">
         <v>35.409999999999997</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="2">
         <v>870</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="2">
         <v>433</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="4">
         <v>25</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="2">
         <v>33.71</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="2">
         <v>871</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="2">
         <v>381</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="4">
         <v>20</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="5">
         <v>35.950000000000003</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="2">
         <v>867</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="2">
         <v>266</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="2">
         <v>4</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="6">
         <f t="shared" si="0"/>
         <v>5.433228481555619E-4</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="7">
         <f t="shared" si="1"/>
-        <v>2.6037116031081318E-6</v>
-      </c>
-      <c r="S8" s="18">
+        <v>2.6037116031081324</v>
+      </c>
+      <c r="S8" s="7">
         <f t="shared" si="2"/>
         <v>0.52600000000000002</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="7">
         <f t="shared" si="3"/>
         <v>0.42080000000000001</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="7">
         <f t="shared" si="4"/>
         <v>-0.37592426885431734</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="5">
         <f t="shared" si="5"/>
-        <v>-5.5844071215305027</v>
+        <v>0.41559287846949722</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="4">
         <v>30</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="2">
         <v>36.96</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="2">
         <v>840</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="2">
         <v>437</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="4">
         <v>22.5</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="2">
         <v>32.61</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="2">
         <v>838</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="2">
         <v>386</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="4">
         <v>20</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="5">
         <v>36.01</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="2">
         <v>840</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="2">
         <v>274</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="2">
         <v>5</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="6">
         <f t="shared" si="0"/>
         <v>5.0385299347954955E-4</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="7">
         <f t="shared" si="1"/>
-        <v>2.4145641764136797E-6</v>
-      </c>
-      <c r="S9" s="18">
+        <v>2.41456417641368</v>
+      </c>
+      <c r="S9" s="7">
         <f t="shared" si="2"/>
         <v>0.47399999999999998</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="7">
         <f t="shared" si="3"/>
         <v>0.37919999999999998</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="7">
         <f t="shared" si="4"/>
         <v>-0.42113167133397139</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="5">
         <f t="shared" si="5"/>
-        <v>-5.6171612470489194</v>
+        <v>0.38283875295108055</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="4">
         <v>30</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="2">
         <v>38.380000000000003</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="2">
         <v>809</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="2">
         <v>438</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="4">
         <v>25</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="2">
         <v>37.03</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="2">
         <v>808</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="2">
         <v>390</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="4">
         <v>19</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="5">
         <v>34.97</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="2">
         <v>810</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="2">
         <v>284</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="2">
         <v>6</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="6">
         <f t="shared" si="0"/>
         <v>4.755865567533291E-4</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="7">
         <f t="shared" si="1"/>
-        <v>2.2791057661288433E-6</v>
-      </c>
-      <c r="S10" s="18">
+        <v>2.2791057661288434</v>
+      </c>
+      <c r="S10" s="7">
         <f t="shared" si="2"/>
         <v>0.432</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="7">
         <f t="shared" si="3"/>
         <v>0.34560000000000002</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="7">
         <f t="shared" si="4"/>
         <v>-0.46142626619314431</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="5">
         <f t="shared" si="5"/>
-        <v>-5.6422355201112895</v>
+        <v>0.35776447988871013</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="4">
         <v>25</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="2">
         <v>34.619999999999997</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="2">
         <v>781</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="2">
         <v>441</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="4">
         <v>22.5</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="2">
         <v>34.97</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="2">
         <v>781</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="2">
         <v>394</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="4">
         <v>17</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="5">
         <v>33.74</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="2">
         <v>770</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="2">
         <v>296</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="6">
         <f t="shared" si="0"/>
         <v>4.2052144659377626E-4</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="7">
         <f t="shared" si="1"/>
-        <v>2.0152227604066082E-6</v>
-      </c>
-      <c r="S11" s="18">
+        <v>2.0152227604066084</v>
+      </c>
+      <c r="S11" s="7">
         <f t="shared" si="2"/>
         <v>0.38100000000000001</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="7">
         <f t="shared" si="3"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="7">
         <f t="shared" si="4"/>
         <v>-0.51598503733243706</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="5">
         <f t="shared" si="5"/>
-        <v>-5.6956769404567602</v>
+        <v>0.30432305954324018</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+      <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="4">
         <v>25</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="2">
         <v>34.75</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="2">
         <v>750</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="2">
         <v>442</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="4">
         <v>20</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="2">
         <v>32.72</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="2">
         <v>740</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="2">
         <v>398</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="4">
         <v>15</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="5">
         <v>31.54</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="2">
         <v>738</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="2">
         <v>306</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="2">
         <v>8</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="6">
         <f t="shared" si="0"/>
         <v>4.1296060991105469E-4</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="7">
         <f t="shared" si="1"/>
-        <v>1.9789897209405941E-6</v>
-      </c>
-      <c r="S12" s="18">
+        <v>1.9789897209405942</v>
+      </c>
+      <c r="S12" s="7">
         <f t="shared" si="2"/>
         <v>0.33100000000000002</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="7">
         <f t="shared" si="3"/>
         <v>0.26480000000000004</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="7">
         <f t="shared" si="4"/>
         <v>-0.5770820192323376</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="5">
         <f t="shared" si="5"/>
-        <v>-5.7035564615542773</v>
+        <v>0.29644353844572285</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
+      <c r="B13" s="2">
         <v>7</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="4">
         <v>25</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="2">
         <v>36.44</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="2">
         <v>711</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="2">
         <v>442</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="4">
         <v>20</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="2">
         <v>35.32</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="2">
         <v>709</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="2">
         <v>400</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="4">
         <v>15</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="5">
         <v>35.67</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="2">
         <v>698</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="2">
         <v>317</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="2">
         <v>9</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="6">
         <f t="shared" si="0"/>
         <v>3.7232392181197645E-4</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="7">
         <f t="shared" si="1"/>
-        <v>1.7842505954378833E-6</v>
-      </c>
-      <c r="S13" s="18">
+        <v>1.7842505954378836</v>
+      </c>
+      <c r="S13" s="7">
         <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="7">
         <f t="shared" si="3"/>
         <v>0.22400000000000003</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="7">
         <f t="shared" si="4"/>
         <v>-0.64975198166583714</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="5">
         <f t="shared" si="5"/>
-        <v>-5.7485441496387963</v>
+        <v>0.25145585036120338</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+      <c r="B14" s="2">
         <v>8</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="4">
         <v>20</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="2">
         <v>32.270000000000003</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="2">
         <v>681</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="2">
         <v>440</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="4">
         <v>20</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="2">
         <v>37.380000000000003</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="2">
         <v>678</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="2">
         <v>401</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="4">
         <v>13</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="5">
         <v>31.48</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="2">
         <v>660</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="2">
         <v>329</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="2">
         <v>10</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="6">
         <f t="shared" si="0"/>
         <v>3.2894736842105268E-4</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="7">
         <f t="shared" si="1"/>
-        <v>1.5763814882391168E-6</v>
-      </c>
-      <c r="S14" s="18">
+        <v>1.5763814882391169</v>
+      </c>
+      <c r="S14" s="7">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="7">
         <f t="shared" si="3"/>
         <v>0.192</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="7">
         <f t="shared" si="4"/>
         <v>-0.71669877129645043</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="5">
         <f t="shared" si="5"/>
-        <v>-5.8023386737828408</v>
+        <v>0.19766132621715929</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+      <c r="B15" s="2">
         <v>9</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="4">
         <v>20</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="2">
         <v>34.159999999999997</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="2">
         <v>652</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="2">
         <v>438</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="4">
         <v>17.5</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="2">
         <v>34.72</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="2">
         <v>645</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="2">
         <v>403</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="4">
         <v>12</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="5">
         <v>32.229999999999997</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="2">
         <v>619</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="2">
         <v>339</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+      <c r="B16" s="2">
         <v>10</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="4">
         <v>20</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="2">
         <v>38.270000000000003</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="2">
         <v>610</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="2">
         <v>435</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="4">
         <v>15</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="2">
         <v>32.94</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="2">
         <v>608</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="2">
         <v>404</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="4">
         <v>10</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="5">
         <v>30.4</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="2">
         <v>588</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="2">
         <v>348</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="16">
         <f>D3</f>
         <v>20.5</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="8">
         <f>PI()*(C19^2)/4</f>
         <v>330.06357816777762</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="13">
         <f>H3</f>
         <v>17</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="11" t="s">
+      <c r="L19" s="14"/>
+      <c r="M19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="8">
         <f>PI()*(K19^2)/4</f>
         <v>226.98006922186255</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="6">
         <f>(C7*10^-3)/D7</f>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="D21" s="17">
-        <f>C21/G$19</f>
-        <v>2.7002846000018298E-6</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="7">
+        <f>C21/(G$19*10^-6)</f>
+        <v>2.7002846000018299</v>
+      </c>
+      <c r="E21" s="7">
         <f>(E7-F7)/1000</f>
         <v>0.47199999999999998</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="7">
         <f>E21/D$4</f>
         <v>0.37759999999999999</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="7">
         <f>LOG(F21)</f>
         <v>-0.42296801437396864</v>
       </c>
-      <c r="H21" s="15">
-        <f>LOG(D21)</f>
-        <v>-5.5685904603978225</v>
-      </c>
-      <c r="J21" s="11">
+      <c r="H21" s="5">
+        <f>LOG10(D21)</f>
+        <v>0.43140953960217737</v>
+      </c>
+      <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="6">
         <f>(G7*10^-3)/H7</f>
         <v>7.4872716382150348E-4</v>
       </c>
-      <c r="L21" s="17">
-        <f>K21/O$19</f>
-        <v>3.2986471736849159E-6</v>
-      </c>
-      <c r="M21" s="18">
+      <c r="L21" s="7">
+        <f>K21/(O$19*10^-6)</f>
+        <v>3.2986471736849161</v>
+      </c>
+      <c r="M21" s="7">
         <f>(I7-J7)/1000</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="7">
         <f>M21/H$4</f>
         <v>0.42000000000000004</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="7">
         <f>LOG(N21)</f>
         <v>-0.3767507096020995</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="5">
         <f>LOG(L21)</f>
-        <v>-5.4816641345050527</v>
+        <v>0.51833586549494759</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
+      <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="6">
         <f t="shared" ref="C22:C30" si="6">(C8*10^-3)/D8</f>
         <v>8.4721829991527822E-4</v>
       </c>
-      <c r="D22" s="17">
-        <f t="shared" ref="D22:D30" si="7">C22/G$19</f>
-        <v>2.5668336525292743E-6</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="7">
+        <f t="shared" ref="D22:D30" si="7">C22/(G$19*10^-6)</f>
+        <v>2.5668336525292741</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" ref="E22:E30" si="8">(E8-F8)/1000</f>
         <v>0.437</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="7">
         <f t="shared" ref="F22:F30" si="9">E22/D$4</f>
         <v>0.34960000000000002</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="7">
         <f t="shared" ref="G22:G30" si="10">LOG(F22)</f>
         <v>-0.45642857603763454</v>
       </c>
-      <c r="H22" s="15">
-        <f t="shared" ref="H22:H30" si="11">LOG(D22)</f>
-        <v>-5.5906022755161286</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="H22" s="5">
+        <f t="shared" ref="H22:H30" si="11">LOG10(D22)</f>
+        <v>0.40939772448387135</v>
+      </c>
+      <c r="J22" s="2">
         <v>2</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="6">
         <f t="shared" ref="K22:K30" si="12">(G8*10^-3)/H8</f>
         <v>7.4161969741916344E-4</v>
       </c>
-      <c r="L22" s="17">
-        <f t="shared" ref="L22:L30" si="13">K22/O$19</f>
-        <v>3.2673339996837536E-6</v>
-      </c>
-      <c r="M22" s="18">
+      <c r="L22" s="7">
+        <f t="shared" ref="L22:L30" si="13">K22/(O$19*10^-6)</f>
+        <v>3.2673339996837538</v>
+      </c>
+      <c r="M22" s="7">
         <f t="shared" ref="M22:M30" si="14">(I8-J8)/1000</f>
         <v>0.49</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="7">
         <f t="shared" ref="N22:N30" si="15">M22/H$4</f>
         <v>0.39200000000000002</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="7">
         <f t="shared" ref="O22:O30" si="16">LOG(N22)</f>
         <v>-0.40671393297954272</v>
       </c>
-      <c r="P22" s="15">
-        <f t="shared" ref="P22:P30" si="17">LOG(L22)</f>
-        <v>-5.4858064679716536</v>
+      <c r="P22" s="5">
+        <f t="shared" ref="P22:P29" si="17">LOG(L22)</f>
+        <v>0.51419353202834639</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="6">
         <f t="shared" si="6"/>
         <v>8.1168831168831163E-4</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="7">
         <f t="shared" si="7"/>
-        <v>2.4591877607159518E-6</v>
-      </c>
-      <c r="E23" s="18">
+        <v>2.459187760715952</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" si="8"/>
         <v>0.40300000000000002</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="7">
         <f t="shared" si="9"/>
         <v>0.32240000000000002</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="7">
         <f t="shared" si="10"/>
         <v>-0.49160496686694694</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="5">
         <f t="shared" si="11"/>
-        <v>-5.6092083113060864</v>
-      </c>
-      <c r="J23" s="11">
+        <v>0.39079168869391329</v>
+      </c>
+      <c r="J23" s="2">
         <v>3</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="6">
         <f t="shared" si="12"/>
         <v>6.8997240110395578E-4</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="7">
         <f t="shared" si="13"/>
-        <v>3.0397928922540753E-6</v>
-      </c>
-      <c r="M23" s="18">
+        <v>3.0397928922540753</v>
+      </c>
+      <c r="M23" s="7">
         <f t="shared" si="14"/>
         <v>0.45200000000000001</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="7">
         <f t="shared" si="15"/>
         <v>0.36160000000000003</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="7">
         <f t="shared" si="16"/>
         <v>-0.44177157819667429</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="5">
         <f t="shared" si="17"/>
-        <v>-5.5171560048173136</v>
+        <v>0.48284399518268617</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="11">
+      <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="6">
         <f t="shared" si="6"/>
         <v>7.816571130797289E-4</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="7">
         <f t="shared" si="7"/>
-        <v>2.3682016580526727E-6</v>
-      </c>
-      <c r="E24" s="18">
+        <v>2.3682016580526728</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" si="8"/>
         <v>0.371</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="7">
         <f t="shared" si="9"/>
         <v>0.29680000000000001</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="7">
         <f t="shared" si="10"/>
         <v>-0.52753610339301049</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="5">
         <f t="shared" si="11"/>
-        <v>-5.6255813191574706</v>
-      </c>
-      <c r="J24" s="11">
+        <v>0.37441868084252966</v>
+      </c>
+      <c r="J24" s="2">
         <v>4</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="6">
         <f t="shared" si="12"/>
         <v>6.7512827437213069E-4</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="7">
         <f t="shared" si="13"/>
-        <v>2.9743945214512379E-6</v>
-      </c>
-      <c r="M24" s="18">
+        <v>2.9743945214512379</v>
+      </c>
+      <c r="M24" s="7">
         <f t="shared" si="14"/>
         <v>0.41799999999999998</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="7">
         <f t="shared" si="15"/>
         <v>0.33439999999999998</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="7">
         <f t="shared" si="16"/>
         <v>-0.47573373123302126</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="5">
         <f t="shared" si="17"/>
-        <v>-5.5266014275001245</v>
+        <v>0.47339857249987571</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="11">
+      <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="6">
         <f t="shared" si="6"/>
         <v>7.2212593876372052E-4</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="7">
         <f t="shared" si="7"/>
-        <v>2.1878389090136148E-6</v>
-      </c>
-      <c r="E25" s="18">
+        <v>2.1878389090136148</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" si="8"/>
         <v>0.34</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="7">
         <f t="shared" si="9"/>
         <v>0.27200000000000002</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="7">
         <f t="shared" si="10"/>
         <v>-0.56543109596580121</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="5">
         <f t="shared" si="11"/>
-        <v>-5.6599846583450173</v>
-      </c>
-      <c r="J25" s="11">
+        <v>0.34001534165498259</v>
+      </c>
+      <c r="J25" s="2">
         <v>5</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="6">
         <f t="shared" si="12"/>
         <v>6.4340863597369172E-4</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="7">
         <f t="shared" si="13"/>
-        <v>2.834648161750226E-6</v>
-      </c>
-      <c r="M25" s="18">
+        <v>2.8346481617502262</v>
+      </c>
+      <c r="M25" s="7">
         <f t="shared" si="14"/>
         <v>0.38700000000000001</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="7">
         <f t="shared" si="15"/>
         <v>0.30959999999999999</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="7">
         <f t="shared" si="16"/>
         <v>-0.50919904798914506</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="5">
         <f t="shared" si="17"/>
-        <v>-5.5475008383206017</v>
+        <v>0.45249916167939847</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="11">
+      <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="6">
         <f t="shared" si="6"/>
         <v>7.1942446043165469E-4</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="7">
         <f t="shared" si="7"/>
-        <v>2.1796541879151463E-6</v>
-      </c>
-      <c r="E26" s="18">
+        <v>2.1796541879151463</v>
+      </c>
+      <c r="E26" s="7">
         <f t="shared" si="8"/>
         <v>0.308</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="7">
         <f t="shared" si="9"/>
         <v>0.24640000000000001</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="7">
         <f t="shared" si="10"/>
         <v>-0.60835929650761211</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="5">
         <f t="shared" si="11"/>
-        <v>-5.661612403731775</v>
-      </c>
-      <c r="J26" s="11">
+        <v>0.33838759626822495</v>
+      </c>
+      <c r="J26" s="2">
         <v>6</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="6">
         <f t="shared" si="12"/>
         <v>6.1124694376528117E-4</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="7">
         <f t="shared" si="13"/>
-        <v>2.6929542574410597E-6</v>
-      </c>
-      <c r="M26" s="18">
+        <v>2.6929542574410599</v>
+      </c>
+      <c r="M26" s="7">
         <f t="shared" si="14"/>
         <v>0.34200000000000003</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="7">
         <f t="shared" si="15"/>
         <v>0.27360000000000001</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="7">
         <f t="shared" si="16"/>
         <v>-0.56288390695192136</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="5">
         <f t="shared" si="17"/>
-        <v>-5.5697710234580233</v>
+        <v>0.43022897654197656</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
+      <c r="B27" s="2">
         <v>7</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="6">
         <f t="shared" si="6"/>
         <v>6.860592755214051E-4</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="7">
         <f t="shared" si="7"/>
-        <v>2.0785670425370837E-6</v>
-      </c>
-      <c r="E27" s="18">
+        <v>2.0785670425370837</v>
+      </c>
+      <c r="E27" s="7">
         <f t="shared" si="8"/>
         <v>0.26900000000000002</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="7">
         <f t="shared" si="9"/>
         <v>0.2152</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="7">
         <f t="shared" si="10"/>
         <v>-0.6671577330056484</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="5">
         <f t="shared" si="11"/>
-        <v>-5.6822359631066028</v>
-      </c>
-      <c r="J27" s="11">
+        <v>0.31776403689339694</v>
+      </c>
+      <c r="J27" s="2">
         <v>7</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="6">
         <f t="shared" si="12"/>
         <v>5.6625141562853911E-4</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="7">
         <f t="shared" si="13"/>
-        <v>2.4947186665762028E-6</v>
-      </c>
-      <c r="M27" s="18">
+        <v>2.4947186665762029</v>
+      </c>
+      <c r="M27" s="7">
         <f t="shared" si="14"/>
         <v>0.309</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="7">
         <f t="shared" si="15"/>
         <v>0.2472</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="7">
         <f t="shared" si="16"/>
         <v>-0.60695153358322174</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="5">
         <f t="shared" si="17"/>
-        <v>-5.6029784233642692</v>
+        <v>0.39702157663573101</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+      <c r="B28" s="2">
         <v>8</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="6">
         <f t="shared" si="6"/>
         <v>6.1977068484660668E-4</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="7">
         <f t="shared" si="7"/>
-        <v>1.8777312185943927E-6</v>
-      </c>
-      <c r="E28" s="18">
+        <v>1.8777312185943928</v>
+      </c>
+      <c r="E28" s="7">
         <f t="shared" si="8"/>
         <v>0.24099999999999999</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="7">
         <f t="shared" si="9"/>
         <v>0.1928</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="7">
         <f t="shared" si="10"/>
         <v>-0.714892970433188</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="5">
         <f t="shared" si="11"/>
-        <v>-5.7263665732176037</v>
-      </c>
-      <c r="J28" s="11">
+        <v>0.27363342678239616</v>
+      </c>
+      <c r="J28" s="2">
         <v>8</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="6">
         <f t="shared" si="12"/>
         <v>5.3504547886570354E-4</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="7">
         <f t="shared" si="13"/>
-        <v>2.3572355083860743E-6</v>
-      </c>
-      <c r="M28" s="18">
+        <v>2.3572355083860748</v>
+      </c>
+      <c r="M28" s="7">
         <f t="shared" si="14"/>
         <v>0.27700000000000002</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="7">
         <f t="shared" si="15"/>
         <v>0.22160000000000002</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="7">
         <f t="shared" si="16"/>
         <v>-0.65443024394360783</v>
       </c>
-      <c r="P28" s="15">
+      <c r="P28" s="5">
         <f t="shared" si="17"/>
-        <v>-5.6275970255015517</v>
+        <v>0.37240297449844867</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
+      <c r="B29" s="2">
         <v>9</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="6">
         <f t="shared" si="6"/>
         <v>5.854800936768151E-4</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="7">
         <f t="shared" si="7"/>
-        <v>1.7738403519918347E-6</v>
-      </c>
-      <c r="E29" s="18">
+        <v>1.7738403519918347</v>
+      </c>
+      <c r="E29" s="7">
         <f t="shared" si="8"/>
         <v>0.214</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="7">
         <f t="shared" si="9"/>
         <v>0.17119999999999999</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="7">
         <f t="shared" si="10"/>
         <v>-0.7664962396588656</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="5">
         <f t="shared" si="11"/>
-        <v>-5.7510854698306666</v>
-      </c>
-      <c r="J29" s="11">
+        <v>0.24891453016933379</v>
+      </c>
+      <c r="J29" s="2">
         <v>9</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="6">
         <f t="shared" si="12"/>
         <v>5.0403225806451622E-4</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="7">
         <f t="shared" si="13"/>
-        <v>2.2206013937366805E-6</v>
-      </c>
-      <c r="M29" s="18">
+        <v>2.2206013937366809</v>
+      </c>
+      <c r="M29" s="7">
         <f t="shared" si="14"/>
         <v>0.24199999999999999</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="7">
         <f t="shared" si="15"/>
         <v>0.19359999999999999</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="7">
         <f t="shared" si="16"/>
         <v>-0.71309464702762515</v>
       </c>
-      <c r="P29" s="15">
+      <c r="P29" s="5">
         <f t="shared" si="17"/>
-        <v>-5.6535293919408787</v>
+        <v>0.346470608059121</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
+      <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="6">
         <f t="shared" si="6"/>
         <v>5.2260256075254764E-4</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="7">
         <f t="shared" si="7"/>
-        <v>1.5833390756216632E-6</v>
-      </c>
-      <c r="E30" s="18">
+        <v>1.5833390756216634</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" si="8"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="7">
         <f t="shared" si="9"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="7">
         <f t="shared" si="10"/>
         <v>-0.85387196432176204</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="5">
         <f t="shared" si="11"/>
-        <v>-5.8004260700381982</v>
-      </c>
-      <c r="J30" s="11">
+        <v>0.19957392996180184</v>
+      </c>
+      <c r="J30" s="2">
         <v>10</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="6">
         <f t="shared" si="12"/>
         <v>4.5537340619307832E-4</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="7">
         <f t="shared" si="13"/>
-        <v>2.0062263957985307E-6</v>
-      </c>
-      <c r="M30" s="18">
+        <v>2.0062263957985307</v>
+      </c>
+      <c r="M30" s="7">
         <f t="shared" si="14"/>
         <v>0.20399999999999999</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="7">
         <f t="shared" si="15"/>
         <v>0.16319999999999998</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="7">
         <f t="shared" si="16"/>
         <v>-0.78727984558215769</v>
       </c>
-      <c r="P30" s="15">
-        <f t="shared" si="17"/>
-        <v>-5.6976200599007738</v>
+      <c r="P30" s="5">
+        <f>LOG(L30)</f>
+        <v>0.30237994009922636</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="16">
         <v>20.5</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="11" t="s">
+      <c r="E35" s="14"/>
+      <c r="F35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="13">
         <v>17</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="11" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="13">
         <v>16.3</v>
       </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="11" t="s">
+      <c r="M35" s="17"/>
+      <c r="N35" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="11" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
+      <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="5">
         <f>H21</f>
-        <v>-5.5685904603978225</v>
-      </c>
-      <c r="D37" s="18">
+        <v>0.43140953960217737</v>
+      </c>
+      <c r="D37" s="6">
         <f>G21</f>
         <v>-0.42296801437396864</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="4">
         <f>C37^2</f>
-        <v>31.009199715633631</v>
-      </c>
-      <c r="F37" s="15">
+        <v>0.18611419085976263</v>
+      </c>
+      <c r="F37" s="5">
         <f>C37*D37</f>
-        <v>2.3553356498962907</v>
-      </c>
-      <c r="G37" s="15">
+        <v>-0.18247243634752094</v>
+      </c>
+      <c r="G37" s="5">
         <f>P21</f>
-        <v>-5.4816641345050527</v>
-      </c>
-      <c r="H37" s="18">
+        <v>0.51833586549494759</v>
+      </c>
+      <c r="H37" s="6">
         <f>O21</f>
         <v>-0.3767507096020995</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="4">
         <f>G37^2</f>
-        <v>30.04864168351903</v>
-      </c>
-      <c r="J37" s="15">
+        <v>0.26867206945839639</v>
+      </c>
+      <c r="J37" s="5">
         <f>G37*H37</f>
-        <v>2.0652208524751572</v>
-      </c>
-      <c r="K37" s="15">
+        <v>-0.19528340513743991</v>
+      </c>
+      <c r="K37" s="5">
         <f>V5</f>
-        <v>-5.5530956703385499</v>
-      </c>
-      <c r="L37" s="18">
+        <v>0.44690432966144988</v>
+      </c>
+      <c r="L37" s="6">
         <f>U5</f>
         <v>-0.2846653162076872</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="4">
         <f>K37^2</f>
-        <v>30.83687152393275</v>
-      </c>
-      <c r="N37" s="15">
+        <v>0.19972347987014988</v>
+      </c>
+      <c r="N37" s="5">
         <f>K37*L37</f>
-        <v>1.5807737349284621</v>
+        <v>-0.12721816231766112</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
+      <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="15">
-        <f t="shared" ref="C38:C47" si="18">H22</f>
-        <v>-5.5906022755161286</v>
-      </c>
-      <c r="D38" s="18">
+      <c r="C38" s="5">
+        <f t="shared" ref="C38:C46" si="18">H22</f>
+        <v>0.40939772448387135</v>
+      </c>
+      <c r="D38" s="6">
         <f t="shared" ref="D38:D46" si="19">G22</f>
         <v>-0.45642857603763454</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="4">
         <f t="shared" ref="E38:E46" si="20">C38^2</f>
-        <v>31.254833803006115</v>
-      </c>
-      <c r="F38" s="15">
+        <v>0.16760649681257184</v>
+      </c>
+      <c r="F38" s="5">
         <f t="shared" ref="F38:F46" si="21">C38*D38</f>
-        <v>2.551710635806586</v>
-      </c>
-      <c r="G38" s="15">
+        <v>-0.18686082041922122</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" ref="G38:G46" si="22">P22</f>
-        <v>-5.4858064679716536</v>
-      </c>
-      <c r="H38" s="18">
+        <v>0.51419353202834639</v>
+      </c>
+      <c r="H38" s="6">
         <f t="shared" ref="H38:H46" si="23">O22</f>
         <v>-0.40671393297954272</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="4">
         <f t="shared" ref="I38:I46" si="24">G38^2</f>
-        <v>30.094072604039628</v>
-      </c>
-      <c r="J38" s="15">
+        <v>0.26439498837978609</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" ref="J38:J46" si="25">G38*H38</f>
-        <v>2.2311539241533653</v>
-      </c>
-      <c r="K38" s="15">
+        <v>-0.20912967372389124</v>
+      </c>
+      <c r="K38" s="5">
         <f t="shared" ref="K38:K46" si="26">V6</f>
-        <v>-5.5741339892290069</v>
-      </c>
-      <c r="L38" s="18">
+        <v>0.42586601077099273</v>
+      </c>
+      <c r="L38" s="6">
         <f t="shared" ref="L38:L46" si="27">U6</f>
         <v>-0.31803554100531689</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="4">
         <f t="shared" ref="M38:M46" si="28">K38^2</f>
-        <v>31.070969729878083</v>
-      </c>
-      <c r="N38" s="15">
+        <v>0.1813618591299993</v>
+      </c>
+      <c r="N38" s="5">
         <f t="shared" ref="N38:N46" si="29">K38*L38</f>
-        <v>1.7727727189005724</v>
+        <v>-0.13544052713132879</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="11">
+      <c r="B39" s="2">
         <v>3</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="5">
         <f t="shared" si="18"/>
-        <v>-5.6092083113060864</v>
-      </c>
-      <c r="D39" s="18">
+        <v>0.39079168869391329</v>
+      </c>
+      <c r="D39" s="6">
         <f t="shared" si="19"/>
         <v>-0.49160496686694694</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="4">
         <f t="shared" si="20"/>
-        <v>31.463217879625279</v>
-      </c>
-      <c r="F39" s="15">
+        <v>0.15271814395224043</v>
+      </c>
+      <c r="F39" s="5">
         <f t="shared" si="21"/>
-        <v>2.7575146660294321</v>
-      </c>
-      <c r="G39" s="15">
+        <v>-0.19211513517224948</v>
+      </c>
+      <c r="G39" s="5">
         <f t="shared" si="22"/>
-        <v>-5.5171560048173136</v>
-      </c>
-      <c r="H39" s="18">
+        <v>0.48284399518268617</v>
+      </c>
+      <c r="H39" s="6">
         <f t="shared" si="23"/>
         <v>-0.44177157819667429</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="4">
         <f t="shared" si="24"/>
-        <v>30.439010381491741</v>
-      </c>
-      <c r="J39" s="15">
+        <v>0.23313832368397785</v>
+      </c>
+      <c r="J39" s="5">
         <f t="shared" si="25"/>
-        <v>2.4373227154054029</v>
-      </c>
-      <c r="K39" s="15">
+        <v>-0.21330675377464267</v>
+      </c>
+      <c r="K39" s="5">
         <f t="shared" si="26"/>
-        <v>-5.5748582158813909</v>
-      </c>
-      <c r="L39" s="18">
+        <v>0.42514178411860892</v>
+      </c>
+      <c r="L39" s="6">
         <f t="shared" si="27"/>
         <v>-0.344093581819785</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="4">
         <f t="shared" si="28"/>
-        <v>31.079044127180243</v>
-      </c>
-      <c r="N39" s="15">
+        <v>0.18074553660355389</v>
+      </c>
+      <c r="N39" s="5">
         <f t="shared" si="29"/>
-        <v>1.9182729316400839</v>
+        <v>-0.14628855927862594</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
+      <c r="B40" s="2">
         <v>4</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="5">
         <f t="shared" si="18"/>
-        <v>-5.6255813191574706</v>
-      </c>
-      <c r="D40" s="18">
+        <v>0.37441868084252966</v>
+      </c>
+      <c r="D40" s="6">
         <f t="shared" si="19"/>
         <v>-0.52753610339301049</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="4">
         <f t="shared" si="20"/>
-        <v>31.647165178453506</v>
-      </c>
-      <c r="F40" s="15">
+        <v>0.14018934856386009</v>
+      </c>
+      <c r="F40" s="5">
         <f t="shared" si="21"/>
-        <v>2.967697248428844</v>
-      </c>
-      <c r="G40" s="15">
+        <v>-0.19751937192921931</v>
+      </c>
+      <c r="G40" s="5">
         <f t="shared" si="22"/>
-        <v>-5.5266014275001245</v>
-      </c>
-      <c r="H40" s="18">
+        <v>0.47339857249987571</v>
+      </c>
+      <c r="H40" s="6">
         <f t="shared" si="23"/>
         <v>-0.47573373123302126</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="4">
         <f t="shared" si="24"/>
-        <v>30.543323338446413</v>
-      </c>
-      <c r="J40" s="15">
+        <v>0.22410620844492007</v>
+      </c>
+      <c r="J40" s="5">
         <f t="shared" si="25"/>
-        <v>2.6291907181423757</v>
-      </c>
-      <c r="K40" s="15">
+        <v>-0.22521166925575181</v>
+      </c>
+      <c r="K40" s="5">
         <f t="shared" si="26"/>
-        <v>-5.5844071215305027</v>
-      </c>
-      <c r="L40" s="18">
+        <v>0.41559287846949722</v>
+      </c>
+      <c r="L40" s="6">
         <f t="shared" si="27"/>
         <v>-0.37592426885431734</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="4">
         <f t="shared" si="28"/>
-        <v>31.185602899000596</v>
-      </c>
-      <c r="N40" s="15">
+        <v>0.17271744063456229</v>
+      </c>
+      <c r="N40" s="5">
         <f t="shared" si="29"/>
-        <v>2.0993141641461972</v>
+        <v>-0.15623144897970689</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="11">
+      <c r="B41" s="2">
         <v>5</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="5">
         <f t="shared" si="18"/>
-        <v>-5.6599846583450173</v>
-      </c>
-      <c r="D41" s="18">
+        <v>0.34001534165498259</v>
+      </c>
+      <c r="D41" s="6">
         <f t="shared" si="19"/>
         <v>-0.56543109596580121</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="4">
         <f t="shared" si="20"/>
-        <v>32.035426332700965</v>
-      </c>
-      <c r="F41" s="15">
+        <v>0.11561043256075454</v>
+      </c>
+      <c r="F41" s="5">
         <f t="shared" si="21"/>
-        <v>3.200331328517644</v>
-      </c>
-      <c r="G41" s="15">
+        <v>-0.19225524727716314</v>
+      </c>
+      <c r="G41" s="5">
         <f t="shared" si="22"/>
-        <v>-5.5475008383206017</v>
-      </c>
-      <c r="H41" s="18">
+        <v>0.45249916167939847</v>
+      </c>
+      <c r="H41" s="6">
         <f t="shared" si="23"/>
         <v>-0.50919904798914506</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="4">
         <f t="shared" si="24"/>
-        <v>30.774765551167778</v>
-      </c>
-      <c r="J41" s="15">
+        <v>0.2047554913205584</v>
+      </c>
+      <c r="J41" s="5">
         <f t="shared" si="25"/>
-        <v>2.8247821455918345</v>
-      </c>
-      <c r="K41" s="15">
+        <v>-0.23041214234303592</v>
+      </c>
+      <c r="K41" s="5">
         <f t="shared" si="26"/>
-        <v>-5.6171612470489194</v>
-      </c>
-      <c r="L41" s="18">
+        <v>0.38283875295108055</v>
+      </c>
+      <c r="L41" s="6">
         <f t="shared" si="27"/>
         <v>-0.42113167133397139</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="4">
         <f t="shared" si="28"/>
-        <v>31.552500475348172</v>
-      </c>
-      <c r="N41" s="15">
+        <v>0.1465655107611385</v>
+      </c>
+      <c r="N41" s="5">
         <f t="shared" si="29"/>
-        <v>2.3655645041221263</v>
+        <v>-0.16122552388170192</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="11">
+      <c r="B42" s="2">
         <v>6</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="5">
         <f t="shared" si="18"/>
-        <v>-5.661612403731775</v>
-      </c>
-      <c r="D42" s="18">
+        <v>0.33838759626822495</v>
+      </c>
+      <c r="D42" s="6">
         <f t="shared" si="19"/>
         <v>-0.60835929650761211</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="4">
         <f t="shared" si="20"/>
-        <v>32.053855010089485</v>
-      </c>
-      <c r="F42" s="15">
+        <v>0.1145061653081872</v>
+      </c>
+      <c r="F42" s="5">
         <f t="shared" si="21"/>
-        <v>3.4442945390330335</v>
-      </c>
-      <c r="G42" s="15">
+        <v>-0.2058612400126392</v>
+      </c>
+      <c r="G42" s="5">
         <f t="shared" si="22"/>
-        <v>-5.5697710234580233</v>
-      </c>
-      <c r="H42" s="18">
+        <v>0.43022897654197656</v>
+      </c>
+      <c r="H42" s="6">
         <f t="shared" si="23"/>
         <v>-0.56288390695192136</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="4">
         <f t="shared" si="24"/>
-        <v>31.022349253752637</v>
-      </c>
-      <c r="J42" s="15">
+        <v>0.18509697225635663</v>
+      </c>
+      <c r="J42" s="5">
         <f t="shared" si="25"/>
-        <v>3.1351344745116538</v>
-      </c>
-      <c r="K42" s="15">
+        <v>-0.2421689671998743</v>
+      </c>
+      <c r="K42" s="5">
         <f t="shared" si="26"/>
-        <v>-5.6422355201112895</v>
-      </c>
-      <c r="L42" s="18">
+        <v>0.35776447988871013</v>
+      </c>
+      <c r="L42" s="6">
         <f t="shared" si="27"/>
         <v>-0.46142626619314431</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="4">
         <f t="shared" si="28"/>
-        <v>31.834821664405514</v>
-      </c>
-      <c r="N42" s="15">
+        <v>0.12799542307003928</v>
+      </c>
+      <c r="N42" s="5">
         <f t="shared" si="29"/>
-        <v>2.603475669027286</v>
+        <v>-0.16508192813157979</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="11">
+      <c r="B43" s="2">
         <v>7</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="5">
         <f t="shared" si="18"/>
-        <v>-5.6822359631066028</v>
-      </c>
-      <c r="D43" s="18">
+        <v>0.31776403689339694</v>
+      </c>
+      <c r="D43" s="6">
         <f t="shared" si="19"/>
         <v>-0.6671577330056484</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="4">
         <f t="shared" si="20"/>
-        <v>32.287805540422021</v>
-      </c>
-      <c r="F43" s="15">
+        <v>0.10097398314278813</v>
+      </c>
+      <c r="F43" s="5">
         <f t="shared" si="21"/>
-        <v>3.7909476635493684</v>
-      </c>
-      <c r="G43" s="15">
+        <v>-0.21199873448452192</v>
+      </c>
+      <c r="G43" s="5">
         <f t="shared" si="22"/>
-        <v>-5.6029784233642692</v>
-      </c>
-      <c r="H43" s="18">
+        <v>0.39702157663573101</v>
+      </c>
+      <c r="H43" s="6">
         <f t="shared" si="23"/>
         <v>-0.60695153358322174</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="4">
         <f t="shared" si="24"/>
-        <v>31.393367212685551</v>
-      </c>
-      <c r="J43" s="15">
+        <v>0.15762613231432163</v>
+      </c>
+      <c r="J43" s="5">
         <f t="shared" si="25"/>
-        <v>3.4007363466946452</v>
-      </c>
-      <c r="K43" s="15">
+        <v>-0.24097285480468553</v>
+      </c>
+      <c r="K43" s="5">
         <f t="shared" si="26"/>
-        <v>-5.6956769404567602</v>
-      </c>
-      <c r="L43" s="18">
+        <v>0.30432305954324018</v>
+      </c>
+      <c r="L43" s="6">
         <f t="shared" si="27"/>
         <v>-0.51598503733243706</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M43" s="4">
         <f t="shared" si="28"/>
-        <v>32.440735810050882</v>
-      </c>
-      <c r="N43" s="15">
+        <v>9.2612524569758506E-2</v>
+      </c>
+      <c r="N43" s="5">
         <f t="shared" si="29"/>
-        <v>2.9388840787550823</v>
+        <v>-0.15702614523954025</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="11">
+      <c r="B44" s="2">
         <v>8</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="5">
         <f t="shared" si="18"/>
-        <v>-5.7263665732176037</v>
-      </c>
-      <c r="D44" s="18">
+        <v>0.27363342678239616</v>
+      </c>
+      <c r="D44" s="6">
         <f t="shared" si="19"/>
         <v>-0.714892970433188</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="4">
         <f t="shared" si="20"/>
-        <v>32.791274130863918</v>
-      </c>
-      <c r="F44" s="15">
+        <v>7.4875252252676966E-2</v>
+      </c>
+      <c r="F44" s="5">
         <f t="shared" si="21"/>
-        <v>4.0937392093168485</v>
-      </c>
-      <c r="G44" s="15">
+        <v>-0.19561861328227945</v>
+      </c>
+      <c r="G44" s="5">
         <f t="shared" si="22"/>
-        <v>-5.6275970255015517</v>
-      </c>
-      <c r="H44" s="18">
+        <v>0.37240297449844867</v>
+      </c>
+      <c r="H44" s="6">
         <f t="shared" si="23"/>
         <v>-0.65443024394360783</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="4">
         <f t="shared" si="24"/>
-        <v>31.669848281433911</v>
-      </c>
-      <c r="J44" s="15">
+        <v>0.1386839754152922</v>
+      </c>
+      <c r="J44" s="5">
         <f t="shared" si="25"/>
-        <v>3.6828696942153023</v>
-      </c>
-      <c r="K44" s="15">
+        <v>-0.24371176944634493</v>
+      </c>
+      <c r="K44" s="5">
         <f t="shared" si="26"/>
-        <v>-5.7035564615542773</v>
-      </c>
-      <c r="L44" s="18">
+        <v>0.29644353844572285</v>
+      </c>
+      <c r="L44" s="6">
         <f t="shared" si="27"/>
         <v>-0.5770820192323376</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="4">
         <f t="shared" si="28"/>
-        <v>32.530556310137548</v>
-      </c>
-      <c r="N44" s="15">
+        <v>8.7878771486220766E-2</v>
+      </c>
+      <c r="N44" s="5">
         <f t="shared" si="29"/>
-        <v>3.2914198796393888</v>
+        <v>-0.17107223575463684</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
+      <c r="B45" s="2">
         <v>9</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="5">
         <f t="shared" si="18"/>
-        <v>-5.7510854698306666</v>
-      </c>
-      <c r="D45" s="18">
+        <v>0.24891453016933379</v>
+      </c>
+      <c r="D45" s="6">
         <f t="shared" si="19"/>
         <v>-0.7664962396588656</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="4">
         <f t="shared" si="20"/>
-        <v>33.074984081297416</v>
-      </c>
-      <c r="F45" s="15">
+        <v>6.1958443329420181E-2</v>
+      </c>
+      <c r="F45" s="5">
         <f t="shared" si="21"/>
-        <v>4.4081853865819465</v>
-      </c>
-      <c r="G45" s="15">
+        <v>-0.19079205137124761</v>
+      </c>
+      <c r="G45" s="5">
         <f t="shared" si="22"/>
-        <v>-5.6535293919408787</v>
-      </c>
-      <c r="H45" s="18">
+        <v>0.346470608059121</v>
+      </c>
+      <c r="H45" s="6">
         <f t="shared" si="23"/>
         <v>-0.71309464702762515</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="4">
         <f t="shared" si="24"/>
-        <v>31.9623945855394</v>
-      </c>
-      <c r="J45" s="15">
+        <v>0.12004188224885703</v>
+      </c>
+      <c r="J45" s="5">
         <f t="shared" si="25"/>
-        <v>4.0315015462063855</v>
-      </c>
-      <c r="K45" s="15">
+        <v>-0.24706633595936556</v>
+      </c>
+      <c r="K45" s="5">
         <f t="shared" si="26"/>
-        <v>-5.7485441496387963</v>
-      </c>
-      <c r="L45" s="18">
+        <v>0.25145585036120338</v>
+      </c>
+      <c r="L45" s="6">
         <f t="shared" si="27"/>
         <v>-0.64975198166583714</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="4">
         <f t="shared" si="28"/>
-        <v>33.045759840346435</v>
-      </c>
-      <c r="N45" s="15">
+        <v>6.323004468087591E-2</v>
+      </c>
+      <c r="N45" s="5">
         <f t="shared" si="29"/>
-        <v>3.7351279529213626</v>
+        <v>-0.16338393707366011</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="11">
+      <c r="B46" s="2">
         <v>10</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="5">
         <f t="shared" si="18"/>
-        <v>-5.8004260700381982</v>
-      </c>
-      <c r="D46" s="18">
+        <v>0.19957392996180184</v>
+      </c>
+      <c r="D46" s="6">
         <f t="shared" si="19"/>
         <v>-0.85387196432176204</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="4">
         <f t="shared" si="20"/>
-        <v>33.644942593978776</v>
-      </c>
-      <c r="F46" s="15">
+        <v>3.9829753520398185E-2</v>
+      </c>
+      <c r="F46" s="5">
         <f t="shared" si="21"/>
-        <v>4.9528212023266747</v>
-      </c>
-      <c r="G46" s="15">
+        <v>-0.17041058360389749</v>
+      </c>
+      <c r="G46" s="5">
         <f t="shared" si="22"/>
-        <v>-5.6976200599007738</v>
-      </c>
-      <c r="H46" s="18">
+        <v>0.30237994009922636</v>
+      </c>
+      <c r="H46" s="6">
         <f t="shared" si="23"/>
         <v>-0.78727984558215769</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="4">
         <f t="shared" si="24"/>
-        <v>32.462874346983696</v>
-      </c>
-      <c r="J46" s="15">
+        <v>9.1433628174411724E-2</v>
+      </c>
+      <c r="J46" s="5">
         <f t="shared" si="25"/>
-        <v>4.4856214409444854</v>
-      </c>
-      <c r="K46" s="15">
+        <v>-0.23805763254846102</v>
+      </c>
+      <c r="K46" s="5">
         <f t="shared" si="26"/>
-        <v>-5.8023386737828408</v>
-      </c>
-      <c r="L46" s="18">
+        <v>0.19766132621715929</v>
+      </c>
+      <c r="L46" s="6">
         <f t="shared" si="27"/>
         <v>-0.71669877129645043</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="4">
         <f t="shared" si="28"/>
-        <v>33.667134085276018</v>
-      </c>
-      <c r="N46" s="15">
+        <v>3.9069999881926262E-2</v>
+      </c>
+      <c r="N46" s="5">
         <f t="shared" si="29"/>
-        <v>4.1585289981460374</v>
+        <v>-0.14166362963266493</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="5">
         <f>SUM(C37:C46)</f>
-        <v>-56.67569350464737</v>
-      </c>
-      <c r="D47" s="18">
+        <v>3.3243064953526278</v>
+      </c>
+      <c r="D47" s="7">
         <f>SUM(D37:D46)</f>
         <v>-6.074746960564438</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="4">
         <f t="shared" ref="E47:F47" si="30">SUM(E37:E46)</f>
-        <v>321.26270426607113</v>
-      </c>
-      <c r="F47" s="15">
+        <v>1.1543822103026604</v>
+      </c>
+      <c r="F47" s="5">
         <f t="shared" si="30"/>
-        <v>34.522577529486668</v>
-      </c>
-      <c r="G47" s="15">
+        <v>-1.9259042338999599</v>
+      </c>
+      <c r="G47" s="5">
         <f>SUM(G37:G46)</f>
-        <v>-55.71022479728024</v>
-      </c>
-      <c r="H47" s="18">
+        <v>4.289775202719758</v>
+      </c>
+      <c r="H47" s="7">
         <f>SUM(H37:H46)</f>
         <v>-5.5348091770890164</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="4">
         <f t="shared" ref="I47" si="31">SUM(I37:I46)</f>
-        <v>310.41064723905981</v>
-      </c>
-      <c r="J47" s="15">
+        <v>1.8879496716968782</v>
+      </c>
+      <c r="J47" s="5">
         <f t="shared" ref="J47" si="32">SUM(J37:J46)</f>
-        <v>30.923533858340608</v>
-      </c>
-      <c r="K47" s="15">
+        <v>-2.2853212041934929</v>
+      </c>
+      <c r="K47" s="5">
         <f>SUM(K37:K46)</f>
-        <v>-56.496007989572334</v>
-      </c>
-      <c r="L47" s="18">
+        <v>3.5039920104276647</v>
+      </c>
+      <c r="L47" s="7">
         <f>SUM(L37:L46)</f>
         <v>-4.6647944549412843</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="4">
         <f t="shared" ref="M47" si="33">SUM(M37:M46)</f>
-        <v>319.24399646555622</v>
-      </c>
-      <c r="N47" s="15">
+        <v>1.2919005906882246</v>
+      </c>
+      <c r="N47" s="5">
         <f t="shared" ref="N47" si="34">SUM(N37:N46)</f>
-        <v>26.464134632226603</v>
+        <v>-1.5246320974211067</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4" t="s">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="11" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
+      <c r="B52" s="10">
         <f>D35</f>
         <v>20.5</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="15">
+      <c r="C52" s="11"/>
+      <c r="D52" s="5">
         <f>C47/10</f>
-        <v>-5.6675693504647366</v>
-      </c>
-      <c r="E52" s="18">
+        <v>0.3324306495352628</v>
+      </c>
+      <c r="E52" s="7">
         <f>D47/10</f>
         <v>-0.60747469605644377</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="5">
         <f>((F47/10)-(D52*E52))/((E47/10)-(D52^2))</f>
-        <v>1.8978539864965629</v>
-      </c>
-      <c r="G52" s="14">
+        <v>1.8978539865003827</v>
+      </c>
+      <c r="G52" s="4">
         <f>E52-F52*D52</f>
-        <v>10.148744389468792</v>
-      </c>
-      <c r="H52" s="19">
+        <v>-1.238379529511854</v>
+      </c>
+      <c r="H52" s="8">
         <f>10^G52</f>
-        <v>14084595844.090744</v>
-      </c>
-      <c r="I52" s="11">
+        <v>5.7759107053162756E-2</v>
+      </c>
+      <c r="I52" s="2">
         <v>2</v>
       </c>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11">
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2">
         <v>1.8520000000000001</v>
       </c>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="20">
+      <c r="B53" s="12">
         <f>H35</f>
         <v>17</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="15">
+      <c r="C53" s="11"/>
+      <c r="D53" s="5">
         <f>G47/10</f>
-        <v>-5.5710224797280237</v>
-      </c>
-      <c r="E53" s="18">
+        <v>0.42897752027197578</v>
+      </c>
+      <c r="E53" s="7">
         <f>H47/10</f>
         <v>-0.55348091770890162</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="5">
         <f>((J47/10)-(D53*E53))/((I47/10)-(D53^2))</f>
-        <v>1.8642943937283878</v>
-      </c>
-      <c r="G53" s="14">
+        <v>1.8642943937321226</v>
+      </c>
+      <c r="G53" s="4">
         <f>E53-F53*D53</f>
-        <v>9.8325450585828733</v>
-      </c>
-      <c r="H53" s="19">
+        <v>-1.3532213037890539</v>
+      </c>
+      <c r="H53" s="8">
         <f t="shared" ref="H53:H54" si="35">10^G53</f>
-        <v>6800565980.4583483</v>
-      </c>
-      <c r="I53" s="11">
+        <v>4.4338265150179162E-2</v>
+      </c>
+      <c r="I53" s="2">
         <v>2</v>
       </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11">
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2">
         <v>1.8520000000000001</v>
       </c>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="20">
+      <c r="B54" s="12">
         <f>L35</f>
         <v>16.3</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="15">
+      <c r="C54" s="11"/>
+      <c r="D54" s="5">
         <f>K47/10</f>
-        <v>-5.6496007989572332</v>
-      </c>
-      <c r="E54" s="18">
+        <v>0.35039920104276645</v>
+      </c>
+      <c r="E54" s="7">
         <f>L47/10</f>
         <v>-0.46647944549412845</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="5">
         <f>((N47/10)-(D54*E54))/((M47/10)-(D54^2))</f>
-        <v>1.7145130014293901</v>
-      </c>
-      <c r="G54" s="14">
-        <f t="shared" ref="G53:G54" si="36">E54-F54*D54</f>
-        <v>9.2198345772039172</v>
-      </c>
-      <c r="H54" s="19">
+        <v>1.7145130014293293</v>
+      </c>
+      <c r="G54" s="4">
+        <f t="shared" ref="G54" si="36">E54-F54*D54</f>
+        <v>-1.0672434313724009</v>
+      </c>
+      <c r="H54" s="8">
         <f t="shared" si="35"/>
-        <v>1658954891.0529892</v>
-      </c>
-      <c r="I54" s="11">
+        <v>8.5655759174405668E-2</v>
+      </c>
+      <c r="I54" s="2">
         <v>2</v>
       </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11">
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2">
         <v>1.8520000000000001</v>
       </c>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="D35:E35"/>
@@ -3051,13 +3047,17 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lab7/lab7-yo.xlsx
+++ b/lab7/lab7-yo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B76217-E433-42C3-86B8-3DEE127D36CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33AAA27-3E3B-4551-8FD2-DE1BB8DE4DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0CC3805-AC8E-40F5-BA8D-7020D17EC853}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0CC3805-AC8E-40F5-BA8D-7020D17EC853}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="187" formatCode="0.0"/>
     <numFmt numFmtId="188" formatCode="0.000"/>
+    <numFmt numFmtId="189" formatCode="0.0000"/>
+    <numFmt numFmtId="190" formatCode="0.0E+00"/>
+    <numFmt numFmtId="192" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -306,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,6 +371,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -383,6 +395,1330 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>D1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.2"/>
+            <c:backward val="0.19900000000000004"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.6705715094436725"/>
+                  <c:y val="0.72796106471079669"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="th-TH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.43140953960217737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40939772448387135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39079168869391329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37441868084252966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34001534165498259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33838759626822495</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31776403689339694</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27363342678239616</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24891453016933379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19957392996180184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.42296801437396864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45642857603763454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.49160496686694694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.52753610339301049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.56543109596580121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.60835929650761211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6671577330056484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.714892970433188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.7664962396588656</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.85387196432176204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9CD-4528-AA85-2770B5BECFBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>D2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.15000000000000002"/>
+            <c:backward val="0.30000000000000004"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5058889697611328E-2"/>
+                  <c:y val="1.0990842103106583E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="th-TH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$37:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.51833586549494759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51419353202834639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48284399518268617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47339857249987571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45249916167939847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43022897654197656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39702157663573101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37240297449844867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.346470608059121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30237994009922636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$37:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.3767507096020995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.40671393297954272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44177157819667429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.47573373123302126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.50919904798914506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.56288390695192136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.60695153358322174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.65443024394360783</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.71309464702762515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.78727984558215769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9CD-4528-AA85-2770B5BECFBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>D3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="6.0000000000000012E-2"/>
+            <c:backward val="0.19500000000000003"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.28637357830271215"/>
+                  <c:y val="8.6157075118428933E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="th-TH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$37:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.44690432966144988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42586601077099273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42514178411860892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41559287846949722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38283875295108055</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35776447988871013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30432305954324018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29644353844572285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25145585036120338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19766132621715929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$37:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.2846653162076872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.31803554100531689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.344093581819785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.37592426885431734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42113167133397139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.46142626619314431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.51598503733243706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.5770820192323376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.64975198166583714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.71669877129645043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A9CD-4528-AA85-2770B5BECFBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173392688"/>
+        <c:axId val="628665472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="173392688"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628665472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628665472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-0.2"/>
+          <c:min val="-1.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173392688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.12000000000000001"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="แผนภูมิ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9B3C0E-B2DD-BC10-5E89-49F895BD9262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,18 +2020,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBE7EE-F248-49DA-9638-1D85BBA26B11}">
   <dimension ref="B3:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.19921875" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.19921875" customWidth="1"/>
+    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -843,7 +2186,7 @@
       <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="23">
         <f>(K7*10^-3)/L7</f>
         <v>5.8394160583941611E-4</v>
       </c>
@@ -863,8 +2206,8 @@
         <f>LOG(T5)</f>
         <v>-0.2846653162076872</v>
       </c>
-      <c r="V5" s="5">
-        <f>LOG(R5)</f>
+      <c r="V5" s="21">
+        <f>LOG10(R5)</f>
         <v>0.44690432966144988</v>
       </c>
     </row>
@@ -897,7 +2240,7 @@
       <c r="P6" s="2">
         <v>2</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="23">
         <f t="shared" ref="Q6:Q14" si="0">(K8*10^-3)/L8</f>
         <v>5.5632823365785807E-4</v>
       </c>
@@ -917,8 +2260,8 @@
         <f t="shared" ref="U6:U14" si="4">LOG(T6)</f>
         <v>-0.31803554100531689</v>
       </c>
-      <c r="V6" s="5">
-        <f t="shared" ref="V6:V14" si="5">LOG(R6)</f>
+      <c r="V6" s="21">
+        <f t="shared" ref="V6:V14" si="5">LOG10(R6)</f>
         <v>0.42586601077099273</v>
       </c>
     </row>
@@ -965,7 +2308,7 @@
       <c r="P7" s="2">
         <v>3</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="23">
         <f t="shared" si="0"/>
         <v>5.554012774229381E-4</v>
       </c>
@@ -985,7 +2328,7 @@
         <f t="shared" si="4"/>
         <v>-0.344093581819785</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="21">
         <f t="shared" si="5"/>
         <v>0.42514178411860892</v>
       </c>
@@ -1033,7 +2376,7 @@
       <c r="P8" s="2">
         <v>4</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="23">
         <f t="shared" si="0"/>
         <v>5.433228481555619E-4</v>
       </c>
@@ -1053,7 +2396,7 @@
         <f t="shared" si="4"/>
         <v>-0.37592426885431734</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="21">
         <f t="shared" si="5"/>
         <v>0.41559287846949722</v>
       </c>
@@ -1101,7 +2444,7 @@
       <c r="P9" s="2">
         <v>5</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="23">
         <f t="shared" si="0"/>
         <v>5.0385299347954955E-4</v>
       </c>
@@ -1121,7 +2464,7 @@
         <f t="shared" si="4"/>
         <v>-0.42113167133397139</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="21">
         <f t="shared" si="5"/>
         <v>0.38283875295108055</v>
       </c>
@@ -1169,7 +2512,7 @@
       <c r="P10" s="2">
         <v>6</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="23">
         <f t="shared" si="0"/>
         <v>4.755865567533291E-4</v>
       </c>
@@ -1189,7 +2532,7 @@
         <f t="shared" si="4"/>
         <v>-0.46142626619314431</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="21">
         <f t="shared" si="5"/>
         <v>0.35776447988871013</v>
       </c>
@@ -1237,7 +2580,7 @@
       <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="23">
         <f t="shared" si="0"/>
         <v>4.2052144659377626E-4</v>
       </c>
@@ -1257,7 +2600,7 @@
         <f t="shared" si="4"/>
         <v>-0.51598503733243706</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="21">
         <f t="shared" si="5"/>
         <v>0.30432305954324018</v>
       </c>
@@ -1305,7 +2648,7 @@
       <c r="P12" s="2">
         <v>8</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="23">
         <f t="shared" si="0"/>
         <v>4.1296060991105469E-4</v>
       </c>
@@ -1325,7 +2668,7 @@
         <f t="shared" si="4"/>
         <v>-0.5770820192323376</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="21">
         <f t="shared" si="5"/>
         <v>0.29644353844572285</v>
       </c>
@@ -1373,7 +2716,7 @@
       <c r="P13" s="2">
         <v>9</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="23">
         <f t="shared" si="0"/>
         <v>3.7232392181197645E-4</v>
       </c>
@@ -1393,7 +2736,7 @@
         <f t="shared" si="4"/>
         <v>-0.64975198166583714</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="21">
         <f t="shared" si="5"/>
         <v>0.25145585036120338</v>
       </c>
@@ -1441,7 +2784,7 @@
       <c r="P14" s="2">
         <v>10</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="23">
         <f t="shared" si="0"/>
         <v>3.2894736842105268E-4</v>
       </c>
@@ -1461,7 +2804,7 @@
         <f t="shared" si="4"/>
         <v>-0.71669877129645043</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="21">
         <f t="shared" si="5"/>
         <v>0.19766132621715929</v>
       </c>
@@ -1640,7 +2983,7 @@
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="23">
         <f>(C7*10^-3)/D7</f>
         <v>8.9126559714795015E-4</v>
       </c>
@@ -1660,14 +3003,14 @@
         <f>LOG(F21)</f>
         <v>-0.42296801437396864</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="21">
         <f>LOG10(D21)</f>
         <v>0.43140953960217737</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="23">
         <f>(G7*10^-3)/H7</f>
         <v>7.4872716382150348E-4</v>
       </c>
@@ -1687,8 +3030,8 @@
         <f>LOG(N21)</f>
         <v>-0.3767507096020995</v>
       </c>
-      <c r="P21" s="5">
-        <f>LOG(L21)</f>
+      <c r="P21" s="21">
+        <f>LOG10(L21)</f>
         <v>0.51833586549494759</v>
       </c>
     </row>
@@ -1696,7 +3039,7 @@
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="23">
         <f t="shared" ref="C22:C30" si="6">(C8*10^-3)/D8</f>
         <v>8.4721829991527822E-4</v>
       </c>
@@ -1716,14 +3059,14 @@
         <f t="shared" ref="G22:G30" si="10">LOG(F22)</f>
         <v>-0.45642857603763454</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="21">
         <f t="shared" ref="H22:H30" si="11">LOG10(D22)</f>
         <v>0.40939772448387135</v>
       </c>
       <c r="J22" s="2">
         <v>2</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="23">
         <f t="shared" ref="K22:K30" si="12">(G8*10^-3)/H8</f>
         <v>7.4161969741916344E-4</v>
       </c>
@@ -1743,8 +3086,8 @@
         <f t="shared" ref="O22:O30" si="16">LOG(N22)</f>
         <v>-0.40671393297954272</v>
       </c>
-      <c r="P22" s="5">
-        <f t="shared" ref="P22:P29" si="17">LOG(L22)</f>
+      <c r="P22" s="21">
+        <f t="shared" ref="P22:P30" si="17">LOG10(L22)</f>
         <v>0.51419353202834639</v>
       </c>
     </row>
@@ -1752,7 +3095,7 @@
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="23">
         <f t="shared" si="6"/>
         <v>8.1168831168831163E-4</v>
       </c>
@@ -1772,14 +3115,14 @@
         <f t="shared" si="10"/>
         <v>-0.49160496686694694</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="21">
         <f t="shared" si="11"/>
         <v>0.39079168869391329</v>
       </c>
       <c r="J23" s="2">
         <v>3</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="23">
         <f t="shared" si="12"/>
         <v>6.8997240110395578E-4</v>
       </c>
@@ -1799,7 +3142,7 @@
         <f t="shared" si="16"/>
         <v>-0.44177157819667429</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="21">
         <f t="shared" si="17"/>
         <v>0.48284399518268617</v>
       </c>
@@ -1808,7 +3151,7 @@
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="23">
         <f t="shared" si="6"/>
         <v>7.816571130797289E-4</v>
       </c>
@@ -1828,14 +3171,14 @@
         <f t="shared" si="10"/>
         <v>-0.52753610339301049</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="21">
         <f t="shared" si="11"/>
         <v>0.37441868084252966</v>
       </c>
       <c r="J24" s="2">
         <v>4</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="23">
         <f t="shared" si="12"/>
         <v>6.7512827437213069E-4</v>
       </c>
@@ -1855,7 +3198,7 @@
         <f t="shared" si="16"/>
         <v>-0.47573373123302126</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="21">
         <f t="shared" si="17"/>
         <v>0.47339857249987571</v>
       </c>
@@ -1864,7 +3207,7 @@
       <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="23">
         <f t="shared" si="6"/>
         <v>7.2212593876372052E-4</v>
       </c>
@@ -1884,14 +3227,14 @@
         <f t="shared" si="10"/>
         <v>-0.56543109596580121</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="21">
         <f t="shared" si="11"/>
         <v>0.34001534165498259</v>
       </c>
       <c r="J25" s="2">
         <v>5</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="23">
         <f t="shared" si="12"/>
         <v>6.4340863597369172E-4</v>
       </c>
@@ -1911,7 +3254,7 @@
         <f t="shared" si="16"/>
         <v>-0.50919904798914506</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="21">
         <f t="shared" si="17"/>
         <v>0.45249916167939847</v>
       </c>
@@ -1920,7 +3263,7 @@
       <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="23">
         <f t="shared" si="6"/>
         <v>7.1942446043165469E-4</v>
       </c>
@@ -1940,14 +3283,14 @@
         <f t="shared" si="10"/>
         <v>-0.60835929650761211</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="21">
         <f t="shared" si="11"/>
         <v>0.33838759626822495</v>
       </c>
       <c r="J26" s="2">
         <v>6</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="23">
         <f t="shared" si="12"/>
         <v>6.1124694376528117E-4</v>
       </c>
@@ -1967,7 +3310,7 @@
         <f t="shared" si="16"/>
         <v>-0.56288390695192136</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="21">
         <f t="shared" si="17"/>
         <v>0.43022897654197656</v>
       </c>
@@ -1976,7 +3319,7 @@
       <c r="B27" s="2">
         <v>7</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="23">
         <f t="shared" si="6"/>
         <v>6.860592755214051E-4</v>
       </c>
@@ -1996,14 +3339,14 @@
         <f t="shared" si="10"/>
         <v>-0.6671577330056484</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="21">
         <f t="shared" si="11"/>
         <v>0.31776403689339694</v>
       </c>
       <c r="J27" s="2">
         <v>7</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="23">
         <f t="shared" si="12"/>
         <v>5.6625141562853911E-4</v>
       </c>
@@ -2023,7 +3366,7 @@
         <f t="shared" si="16"/>
         <v>-0.60695153358322174</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="21">
         <f t="shared" si="17"/>
         <v>0.39702157663573101</v>
       </c>
@@ -2032,7 +3375,7 @@
       <c r="B28" s="2">
         <v>8</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="23">
         <f t="shared" si="6"/>
         <v>6.1977068484660668E-4</v>
       </c>
@@ -2052,14 +3395,14 @@
         <f t="shared" si="10"/>
         <v>-0.714892970433188</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="21">
         <f t="shared" si="11"/>
         <v>0.27363342678239616</v>
       </c>
       <c r="J28" s="2">
         <v>8</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="23">
         <f t="shared" si="12"/>
         <v>5.3504547886570354E-4</v>
       </c>
@@ -2079,7 +3422,7 @@
         <f t="shared" si="16"/>
         <v>-0.65443024394360783</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="21">
         <f t="shared" si="17"/>
         <v>0.37240297449844867</v>
       </c>
@@ -2088,7 +3431,7 @@
       <c r="B29" s="2">
         <v>9</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="23">
         <f t="shared" si="6"/>
         <v>5.854800936768151E-4</v>
       </c>
@@ -2108,14 +3451,14 @@
         <f t="shared" si="10"/>
         <v>-0.7664962396588656</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="21">
         <f t="shared" si="11"/>
         <v>0.24891453016933379</v>
       </c>
       <c r="J29" s="2">
         <v>9</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="23">
         <f t="shared" si="12"/>
         <v>5.0403225806451622E-4</v>
       </c>
@@ -2135,7 +3478,7 @@
         <f t="shared" si="16"/>
         <v>-0.71309464702762515</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="21">
         <f t="shared" si="17"/>
         <v>0.346470608059121</v>
       </c>
@@ -2144,7 +3487,7 @@
       <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="23">
         <f t="shared" si="6"/>
         <v>5.2260256075254764E-4</v>
       </c>
@@ -2164,14 +3507,14 @@
         <f t="shared" si="10"/>
         <v>-0.85387196432176204</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="21">
         <f t="shared" si="11"/>
         <v>0.19957392996180184</v>
       </c>
       <c r="J30" s="2">
         <v>10</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="23">
         <f t="shared" si="12"/>
         <v>4.5537340619307832E-4</v>
       </c>
@@ -2191,8 +3534,8 @@
         <f t="shared" si="16"/>
         <v>-0.78727984558215769</v>
       </c>
-      <c r="P30" s="5">
-        <f>LOG(L30)</f>
+      <c r="P30" s="21">
+        <f t="shared" si="17"/>
         <v>0.30237994009922636</v>
       </c>
     </row>
@@ -2274,7 +3617,7 @@
       <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <f>H21</f>
         <v>0.43140953960217737</v>
       </c>
@@ -2282,15 +3625,15 @@
         <f>G21</f>
         <v>-0.42296801437396864</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="6">
         <f>C37^2</f>
         <v>0.18611419085976263</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="6">
         <f>C37*D37</f>
         <v>-0.18247243634752094</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="6">
         <f>P21</f>
         <v>0.51833586549494759</v>
       </c>
@@ -2298,15 +3641,15 @@
         <f>O21</f>
         <v>-0.3767507096020995</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="6">
         <f>G37^2</f>
         <v>0.26867206945839639</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="6">
         <f>G37*H37</f>
         <v>-0.19528340513743991</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="6">
         <f>V5</f>
         <v>0.44690432966144988</v>
       </c>
@@ -2314,11 +3657,11 @@
         <f>U5</f>
         <v>-0.2846653162076872</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="6">
         <f>K37^2</f>
         <v>0.19972347987014988</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="6">
         <f>K37*L37</f>
         <v>-0.12721816231766112</v>
       </c>
@@ -2327,7 +3670,7 @@
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
         <f t="shared" ref="C38:C46" si="18">H22</f>
         <v>0.40939772448387135</v>
       </c>
@@ -2335,15 +3678,15 @@
         <f t="shared" ref="D38:D46" si="19">G22</f>
         <v>-0.45642857603763454</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="6">
         <f t="shared" ref="E38:E46" si="20">C38^2</f>
         <v>0.16760649681257184</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="6">
         <f t="shared" ref="F38:F46" si="21">C38*D38</f>
         <v>-0.18686082041922122</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="6">
         <f t="shared" ref="G38:G46" si="22">P22</f>
         <v>0.51419353202834639</v>
       </c>
@@ -2351,15 +3694,15 @@
         <f t="shared" ref="H38:H46" si="23">O22</f>
         <v>-0.40671393297954272</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="6">
         <f t="shared" ref="I38:I46" si="24">G38^2</f>
         <v>0.26439498837978609</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="6">
         <f t="shared" ref="J38:J46" si="25">G38*H38</f>
         <v>-0.20912967372389124</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="6">
         <f t="shared" ref="K38:K46" si="26">V6</f>
         <v>0.42586601077099273</v>
       </c>
@@ -2367,11 +3710,11 @@
         <f t="shared" ref="L38:L46" si="27">U6</f>
         <v>-0.31803554100531689</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="6">
         <f t="shared" ref="M38:M46" si="28">K38^2</f>
         <v>0.1813618591299993</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="6">
         <f t="shared" ref="N38:N46" si="29">K38*L38</f>
         <v>-0.13544052713132879</v>
       </c>
@@ -2380,7 +3723,7 @@
       <c r="B39" s="2">
         <v>3</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <f t="shared" si="18"/>
         <v>0.39079168869391329</v>
       </c>
@@ -2388,15 +3731,15 @@
         <f t="shared" si="19"/>
         <v>-0.49160496686694694</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="6">
         <f t="shared" si="20"/>
         <v>0.15271814395224043</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="6">
         <f t="shared" si="21"/>
         <v>-0.19211513517224948</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="6">
         <f t="shared" si="22"/>
         <v>0.48284399518268617</v>
       </c>
@@ -2404,15 +3747,15 @@
         <f t="shared" si="23"/>
         <v>-0.44177157819667429</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="6">
         <f t="shared" si="24"/>
         <v>0.23313832368397785</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="6">
         <f t="shared" si="25"/>
         <v>-0.21330675377464267</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="6">
         <f t="shared" si="26"/>
         <v>0.42514178411860892</v>
       </c>
@@ -2420,11 +3763,11 @@
         <f t="shared" si="27"/>
         <v>-0.344093581819785</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="6">
         <f t="shared" si="28"/>
         <v>0.18074553660355389</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="6">
         <f t="shared" si="29"/>
         <v>-0.14628855927862594</v>
       </c>
@@ -2433,7 +3776,7 @@
       <c r="B40" s="2">
         <v>4</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="6">
         <f t="shared" si="18"/>
         <v>0.37441868084252966</v>
       </c>
@@ -2441,15 +3784,15 @@
         <f t="shared" si="19"/>
         <v>-0.52753610339301049</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="6">
         <f t="shared" si="20"/>
         <v>0.14018934856386009</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="6">
         <f t="shared" si="21"/>
         <v>-0.19751937192921931</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="6">
         <f t="shared" si="22"/>
         <v>0.47339857249987571</v>
       </c>
@@ -2457,15 +3800,15 @@
         <f t="shared" si="23"/>
         <v>-0.47573373123302126</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="6">
         <f t="shared" si="24"/>
         <v>0.22410620844492007</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="6">
         <f t="shared" si="25"/>
         <v>-0.22521166925575181</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="6">
         <f t="shared" si="26"/>
         <v>0.41559287846949722</v>
       </c>
@@ -2473,11 +3816,11 @@
         <f t="shared" si="27"/>
         <v>-0.37592426885431734</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="6">
         <f t="shared" si="28"/>
         <v>0.17271744063456229</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="6">
         <f t="shared" si="29"/>
         <v>-0.15623144897970689</v>
       </c>
@@ -2486,7 +3829,7 @@
       <c r="B41" s="2">
         <v>5</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="6">
         <f t="shared" si="18"/>
         <v>0.34001534165498259</v>
       </c>
@@ -2494,15 +3837,15 @@
         <f t="shared" si="19"/>
         <v>-0.56543109596580121</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="6">
         <f t="shared" si="20"/>
         <v>0.11561043256075454</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="6">
         <f t="shared" si="21"/>
         <v>-0.19225524727716314</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="6">
         <f t="shared" si="22"/>
         <v>0.45249916167939847</v>
       </c>
@@ -2510,15 +3853,15 @@
         <f t="shared" si="23"/>
         <v>-0.50919904798914506</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="6">
         <f t="shared" si="24"/>
         <v>0.2047554913205584</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="6">
         <f t="shared" si="25"/>
         <v>-0.23041214234303592</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="6">
         <f t="shared" si="26"/>
         <v>0.38283875295108055</v>
       </c>
@@ -2526,11 +3869,11 @@
         <f t="shared" si="27"/>
         <v>-0.42113167133397139</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="6">
         <f t="shared" si="28"/>
         <v>0.1465655107611385</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="6">
         <f t="shared" si="29"/>
         <v>-0.16122552388170192</v>
       </c>
@@ -2539,7 +3882,7 @@
       <c r="B42" s="2">
         <v>6</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="6">
         <f t="shared" si="18"/>
         <v>0.33838759626822495</v>
       </c>
@@ -2547,15 +3890,15 @@
         <f t="shared" si="19"/>
         <v>-0.60835929650761211</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="6">
         <f t="shared" si="20"/>
         <v>0.1145061653081872</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="6">
         <f t="shared" si="21"/>
         <v>-0.2058612400126392</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="6">
         <f t="shared" si="22"/>
         <v>0.43022897654197656</v>
       </c>
@@ -2563,15 +3906,15 @@
         <f t="shared" si="23"/>
         <v>-0.56288390695192136</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="6">
         <f t="shared" si="24"/>
         <v>0.18509697225635663</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="6">
         <f t="shared" si="25"/>
         <v>-0.2421689671998743</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="6">
         <f t="shared" si="26"/>
         <v>0.35776447988871013</v>
       </c>
@@ -2579,11 +3922,11 @@
         <f t="shared" si="27"/>
         <v>-0.46142626619314431</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="6">
         <f t="shared" si="28"/>
         <v>0.12799542307003928</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="6">
         <f t="shared" si="29"/>
         <v>-0.16508192813157979</v>
       </c>
@@ -2592,7 +3935,7 @@
       <c r="B43" s="2">
         <v>7</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <f t="shared" si="18"/>
         <v>0.31776403689339694</v>
       </c>
@@ -2600,15 +3943,15 @@
         <f t="shared" si="19"/>
         <v>-0.6671577330056484</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="6">
         <f t="shared" si="20"/>
         <v>0.10097398314278813</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="6">
         <f t="shared" si="21"/>
         <v>-0.21199873448452192</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="6">
         <f t="shared" si="22"/>
         <v>0.39702157663573101</v>
       </c>
@@ -2616,15 +3959,15 @@
         <f t="shared" si="23"/>
         <v>-0.60695153358322174</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="6">
         <f t="shared" si="24"/>
         <v>0.15762613231432163</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="6">
         <f t="shared" si="25"/>
         <v>-0.24097285480468553</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="6">
         <f t="shared" si="26"/>
         <v>0.30432305954324018</v>
       </c>
@@ -2632,11 +3975,11 @@
         <f t="shared" si="27"/>
         <v>-0.51598503733243706</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="6">
         <f t="shared" si="28"/>
         <v>9.2612524569758506E-2</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="6">
         <f t="shared" si="29"/>
         <v>-0.15702614523954025</v>
       </c>
@@ -2645,7 +3988,7 @@
       <c r="B44" s="2">
         <v>8</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="6">
         <f t="shared" si="18"/>
         <v>0.27363342678239616</v>
       </c>
@@ -2653,15 +3996,15 @@
         <f t="shared" si="19"/>
         <v>-0.714892970433188</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="6">
         <f t="shared" si="20"/>
         <v>7.4875252252676966E-2</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="6">
         <f t="shared" si="21"/>
         <v>-0.19561861328227945</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="6">
         <f t="shared" si="22"/>
         <v>0.37240297449844867</v>
       </c>
@@ -2669,15 +4012,15 @@
         <f t="shared" si="23"/>
         <v>-0.65443024394360783</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="6">
         <f t="shared" si="24"/>
         <v>0.1386839754152922</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="6">
         <f t="shared" si="25"/>
         <v>-0.24371176944634493</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="6">
         <f t="shared" si="26"/>
         <v>0.29644353844572285</v>
       </c>
@@ -2685,11 +4028,11 @@
         <f t="shared" si="27"/>
         <v>-0.5770820192323376</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="6">
         <f t="shared" si="28"/>
         <v>8.7878771486220766E-2</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="6">
         <f t="shared" si="29"/>
         <v>-0.17107223575463684</v>
       </c>
@@ -2698,7 +4041,7 @@
       <c r="B45" s="2">
         <v>9</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <f t="shared" si="18"/>
         <v>0.24891453016933379</v>
       </c>
@@ -2706,15 +4049,15 @@
         <f t="shared" si="19"/>
         <v>-0.7664962396588656</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="6">
         <f t="shared" si="20"/>
         <v>6.1958443329420181E-2</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="6">
         <f t="shared" si="21"/>
         <v>-0.19079205137124761</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="6">
         <f t="shared" si="22"/>
         <v>0.346470608059121</v>
       </c>
@@ -2722,15 +4065,15 @@
         <f t="shared" si="23"/>
         <v>-0.71309464702762515</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="6">
         <f t="shared" si="24"/>
         <v>0.12004188224885703</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="6">
         <f t="shared" si="25"/>
         <v>-0.24706633595936556</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="6">
         <f t="shared" si="26"/>
         <v>0.25145585036120338</v>
       </c>
@@ -2738,11 +4081,11 @@
         <f t="shared" si="27"/>
         <v>-0.64975198166583714</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="6">
         <f t="shared" si="28"/>
         <v>6.323004468087591E-2</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="6">
         <f t="shared" si="29"/>
         <v>-0.16338393707366011</v>
       </c>
@@ -2751,7 +4094,7 @@
       <c r="B46" s="2">
         <v>10</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="6">
         <f t="shared" si="18"/>
         <v>0.19957392996180184</v>
       </c>
@@ -2759,15 +4102,15 @@
         <f t="shared" si="19"/>
         <v>-0.85387196432176204</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="6">
         <f t="shared" si="20"/>
         <v>3.9829753520398185E-2</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="6">
         <f t="shared" si="21"/>
         <v>-0.17041058360389749</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="6">
         <f t="shared" si="22"/>
         <v>0.30237994009922636</v>
       </c>
@@ -2775,15 +4118,15 @@
         <f t="shared" si="23"/>
         <v>-0.78727984558215769</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="6">
         <f t="shared" si="24"/>
         <v>9.1433628174411724E-2</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="6">
         <f t="shared" si="25"/>
         <v>-0.23805763254846102</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="6">
         <f t="shared" si="26"/>
         <v>0.19766132621715929</v>
       </c>
@@ -2791,11 +4134,11 @@
         <f t="shared" si="27"/>
         <v>-0.71669877129645043</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="6">
         <f t="shared" si="28"/>
         <v>3.9069999881926262E-2</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="6">
         <f t="shared" si="29"/>
         <v>-0.14166362963266493</v>
       </c>
@@ -2804,52 +4147,52 @@
       <c r="B47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="7">
         <f>SUM(C37:C46)</f>
         <v>3.3243064953526278</v>
       </c>
       <c r="D47" s="7">
-        <f>SUM(D37:D46)</f>
+        <f t="shared" ref="D47:N47" si="30">SUM(D37:D46)</f>
         <v>-6.074746960564438</v>
       </c>
-      <c r="E47" s="4">
-        <f t="shared" ref="E47:F47" si="30">SUM(E37:E46)</f>
+      <c r="E47" s="7">
+        <f t="shared" si="30"/>
         <v>1.1543822103026604</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="7">
         <f t="shared" si="30"/>
         <v>-1.9259042338999599</v>
       </c>
-      <c r="G47" s="5">
-        <f>SUM(G37:G46)</f>
+      <c r="G47" s="7">
+        <f t="shared" si="30"/>
         <v>4.289775202719758</v>
       </c>
       <c r="H47" s="7">
-        <f>SUM(H37:H46)</f>
+        <f t="shared" si="30"/>
         <v>-5.5348091770890164</v>
       </c>
-      <c r="I47" s="4">
-        <f t="shared" ref="I47" si="31">SUM(I37:I46)</f>
+      <c r="I47" s="7">
+        <f t="shared" si="30"/>
         <v>1.8879496716968782</v>
       </c>
-      <c r="J47" s="5">
-        <f t="shared" ref="J47" si="32">SUM(J37:J46)</f>
+      <c r="J47" s="7">
+        <f t="shared" si="30"/>
         <v>-2.2853212041934929</v>
       </c>
-      <c r="K47" s="5">
-        <f>SUM(K37:K46)</f>
+      <c r="K47" s="7">
+        <f t="shared" si="30"/>
         <v>3.5039920104276647</v>
       </c>
       <c r="L47" s="7">
-        <f>SUM(L37:L46)</f>
+        <f t="shared" si="30"/>
         <v>-4.6647944549412843</v>
       </c>
-      <c r="M47" s="4">
-        <f t="shared" ref="M47" si="33">SUM(M37:M46)</f>
+      <c r="M47" s="7">
+        <f t="shared" si="30"/>
         <v>1.2919005906882246</v>
       </c>
-      <c r="N47" s="5">
-        <f t="shared" ref="N47" si="34">SUM(N37:N46)</f>
+      <c r="N47" s="7">
+        <f t="shared" si="30"/>
         <v>-1.5246320974211067</v>
       </c>
     </row>
@@ -2917,7 +4260,7 @@
         <v>20.5</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="5">
+      <c r="D52" s="7">
         <f>C47/10</f>
         <v>0.3324306495352628</v>
       </c>
@@ -2929,11 +4272,11 @@
         <f>((F47/10)-(D52*E52))/((E47/10)-(D52^2))</f>
         <v>1.8978539865003827</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="5">
         <f>E52-F52*D52</f>
         <v>-1.238379529511854</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="22">
         <f>10^G52</f>
         <v>5.7759107053162756E-2</v>
       </c>
@@ -2954,7 +4297,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="11"/>
-      <c r="D53" s="5">
+      <c r="D53" s="7">
         <f>G47/10</f>
         <v>0.42897752027197578</v>
       </c>
@@ -2966,12 +4309,12 @@
         <f>((J47/10)-(D53*E53))/((I47/10)-(D53^2))</f>
         <v>1.8642943937321226</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="5">
         <f>E53-F53*D53</f>
         <v>-1.3532213037890539</v>
       </c>
-      <c r="H53" s="8">
-        <f t="shared" ref="H53:H54" si="35">10^G53</f>
+      <c r="H53" s="22">
+        <f t="shared" ref="H53:H54" si="31">10^G53</f>
         <v>4.4338265150179162E-2</v>
       </c>
       <c r="I53" s="2">
@@ -2991,7 +4334,7 @@
         <v>16.3</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="5">
+      <c r="D54" s="7">
         <f>K47/10</f>
         <v>0.35039920104276645</v>
       </c>
@@ -3003,12 +4346,12 @@
         <f>((N47/10)-(D54*E54))/((M47/10)-(D54^2))</f>
         <v>1.7145130014293293</v>
       </c>
-      <c r="G54" s="4">
-        <f t="shared" ref="G54" si="36">E54-F54*D54</f>
+      <c r="G54" s="5">
+        <f t="shared" ref="G54" si="32">E54-F54*D54</f>
         <v>-1.0672434313724009</v>
       </c>
-      <c r="H54" s="8">
-        <f t="shared" si="35"/>
+      <c r="H54" s="22">
+        <f t="shared" si="31"/>
         <v>8.5655759174405668E-2</v>
       </c>
       <c r="I54" s="2">
@@ -3060,5 +4403,6 @@
     <mergeCell ref="H50:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab7/lab7-yo.xlsx
+++ b/lab7/lab7-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33AAA27-3E3B-4551-8FD2-DE1BB8DE4DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8474C833-ED7D-4049-943D-6C020EA742FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0CC3805-AC8E-40F5-BA8D-7020D17EC853}"/>
   </bookViews>
@@ -192,11 +192,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="187" formatCode="0.0"/>
     <numFmt numFmtId="188" formatCode="0.000"/>
     <numFmt numFmtId="189" formatCode="0.0000"/>
-    <numFmt numFmtId="190" formatCode="0.0E+00"/>
     <numFmt numFmtId="192" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -309,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -372,9 +371,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="192" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2020,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBE7EE-F248-49DA-9638-1D85BBA26B11}">
   <dimension ref="B3:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2186,7 +2182,7 @@
       <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="22">
         <f>(K7*10^-3)/L7</f>
         <v>5.8394160583941611E-4</v>
       </c>
@@ -2240,7 +2236,7 @@
       <c r="P6" s="2">
         <v>2</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="22">
         <f t="shared" ref="Q6:Q14" si="0">(K8*10^-3)/L8</f>
         <v>5.5632823365785807E-4</v>
       </c>
@@ -2308,7 +2304,7 @@
       <c r="P7" s="2">
         <v>3</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="22">
         <f t="shared" si="0"/>
         <v>5.554012774229381E-4</v>
       </c>
@@ -2376,7 +2372,7 @@
       <c r="P8" s="2">
         <v>4</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="22">
         <f t="shared" si="0"/>
         <v>5.433228481555619E-4</v>
       </c>
@@ -2444,7 +2440,7 @@
       <c r="P9" s="2">
         <v>5</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="22">
         <f t="shared" si="0"/>
         <v>5.0385299347954955E-4</v>
       </c>
@@ -2512,7 +2508,7 @@
       <c r="P10" s="2">
         <v>6</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="22">
         <f t="shared" si="0"/>
         <v>4.755865567533291E-4</v>
       </c>
@@ -2580,7 +2576,7 @@
       <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="22">
         <f t="shared" si="0"/>
         <v>4.2052144659377626E-4</v>
       </c>
@@ -2648,7 +2644,7 @@
       <c r="P12" s="2">
         <v>8</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="22">
         <f t="shared" si="0"/>
         <v>4.1296060991105469E-4</v>
       </c>
@@ -2716,7 +2712,7 @@
       <c r="P13" s="2">
         <v>9</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="22">
         <f t="shared" si="0"/>
         <v>3.7232392181197645E-4</v>
       </c>
@@ -2784,7 +2780,7 @@
       <c r="P14" s="2">
         <v>10</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="22">
         <f t="shared" si="0"/>
         <v>3.2894736842105268E-4</v>
       </c>
@@ -2983,7 +2979,7 @@
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <f>(C7*10^-3)/D7</f>
         <v>8.9126559714795015E-4</v>
       </c>
@@ -3010,7 +3006,7 @@
       <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="22">
         <f>(G7*10^-3)/H7</f>
         <v>7.4872716382150348E-4</v>
       </c>
@@ -3039,7 +3035,7 @@
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <f t="shared" ref="C22:C30" si="6">(C8*10^-3)/D8</f>
         <v>8.4721829991527822E-4</v>
       </c>
@@ -3066,7 +3062,7 @@
       <c r="J22" s="2">
         <v>2</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="22">
         <f t="shared" ref="K22:K30" si="12">(G8*10^-3)/H8</f>
         <v>7.4161969741916344E-4</v>
       </c>
@@ -3095,7 +3091,7 @@
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <f t="shared" si="6"/>
         <v>8.1168831168831163E-4</v>
       </c>
@@ -3122,7 +3118,7 @@
       <c r="J23" s="2">
         <v>3</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="22">
         <f t="shared" si="12"/>
         <v>6.8997240110395578E-4</v>
       </c>
@@ -3151,7 +3147,7 @@
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <f t="shared" si="6"/>
         <v>7.816571130797289E-4</v>
       </c>
@@ -3178,7 +3174,7 @@
       <c r="J24" s="2">
         <v>4</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="22">
         <f t="shared" si="12"/>
         <v>6.7512827437213069E-4</v>
       </c>
@@ -3207,7 +3203,7 @@
       <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <f t="shared" si="6"/>
         <v>7.2212593876372052E-4</v>
       </c>
@@ -3234,7 +3230,7 @@
       <c r="J25" s="2">
         <v>5</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="22">
         <f t="shared" si="12"/>
         <v>6.4340863597369172E-4</v>
       </c>
@@ -3263,7 +3259,7 @@
       <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <f t="shared" si="6"/>
         <v>7.1942446043165469E-4</v>
       </c>
@@ -3290,7 +3286,7 @@
       <c r="J26" s="2">
         <v>6</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="22">
         <f t="shared" si="12"/>
         <v>6.1124694376528117E-4</v>
       </c>
@@ -3319,7 +3315,7 @@
       <c r="B27" s="2">
         <v>7</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <f t="shared" si="6"/>
         <v>6.860592755214051E-4</v>
       </c>
@@ -3346,7 +3342,7 @@
       <c r="J27" s="2">
         <v>7</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="22">
         <f t="shared" si="12"/>
         <v>5.6625141562853911E-4</v>
       </c>
@@ -3375,7 +3371,7 @@
       <c r="B28" s="2">
         <v>8</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <f t="shared" si="6"/>
         <v>6.1977068484660668E-4</v>
       </c>
@@ -3402,7 +3398,7 @@
       <c r="J28" s="2">
         <v>8</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="22">
         <f t="shared" si="12"/>
         <v>5.3504547886570354E-4</v>
       </c>
@@ -3431,7 +3427,7 @@
       <c r="B29" s="2">
         <v>9</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <f t="shared" si="6"/>
         <v>5.854800936768151E-4</v>
       </c>
@@ -3458,7 +3454,7 @@
       <c r="J29" s="2">
         <v>9</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="22">
         <f t="shared" si="12"/>
         <v>5.0403225806451622E-4</v>
       </c>
@@ -3487,7 +3483,7 @@
       <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <f t="shared" si="6"/>
         <v>5.2260256075254764E-4</v>
       </c>
@@ -3514,7 +3510,7 @@
       <c r="J30" s="2">
         <v>10</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="22">
         <f t="shared" si="12"/>
         <v>4.5537340619307832E-4</v>
       </c>
@@ -4276,7 +4272,7 @@
         <f>E52-F52*D52</f>
         <v>-1.238379529511854</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="6">
         <f>10^G52</f>
         <v>5.7759107053162756E-2</v>
       </c>
@@ -4313,7 +4309,7 @@
         <f>E53-F53*D53</f>
         <v>-1.3532213037890539</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="6">
         <f t="shared" ref="H53:H54" si="31">10^G53</f>
         <v>4.4338265150179162E-2</v>
       </c>
@@ -4350,7 +4346,7 @@
         <f t="shared" ref="G54" si="32">E54-F54*D54</f>
         <v>-1.0672434313724009</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="6">
         <f t="shared" si="31"/>
         <v>8.5655759174405668E-2</v>
       </c>

--- a/lab7/lab7-yo.xlsx
+++ b/lab7/lab7-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8474C833-ED7D-4049-943D-6C020EA742FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B359B9E-1EBE-485C-A3CA-995121BD7765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0CC3805-AC8E-40F5-BA8D-7020D17EC853}"/>
   </bookViews>
@@ -196,7 +196,7 @@
     <numFmt numFmtId="187" formatCode="0.0"/>
     <numFmt numFmtId="188" formatCode="0.000"/>
     <numFmt numFmtId="189" formatCode="0.0000"/>
-    <numFmt numFmtId="192" formatCode="0.000E+00"/>
+    <numFmt numFmtId="190" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -334,6 +334,36 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,36 +375,6 @@
     </xf>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,6 +1083,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1686,10 +1717,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2016,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBE7EE-F248-49DA-9638-1D85BBA26B11}">
   <dimension ref="B3:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2038,47 +2069,47 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="11">
         <v>20.5</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="17">
         <v>17</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="17">
         <v>16.3</v>
       </c>
-      <c r="M3" s="17"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="17">
         <f>L3</f>
         <v>16.3</v>
       </c>
-      <c r="R3" s="14"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
@@ -2094,34 +2125,34 @@
       </c>
     </row>
     <row r="4" spans="2:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="11">
         <v>1.25</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="11">
         <v>1.25</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="11">
         <v>1.25</v>
       </c>
-      <c r="M4" s="14"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2148,41 +2179,41 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="12"/>
       <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="10">
         <f>(K7*10^-3)/L7</f>
         <v>5.8394160583941611E-4</v>
       </c>
@@ -2202,31 +2233,31 @@
         <f>LOG(T5)</f>
         <v>-0.2846653162076872</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="9">
         <f>LOG10(R5)</f>
         <v>0.44690432966144988</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2236,7 +2267,7 @@
       <c r="P6" s="2">
         <v>2</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="10">
         <f t="shared" ref="Q6:Q14" si="0">(K8*10^-3)/L8</f>
         <v>5.5632823365785807E-4</v>
       </c>
@@ -2256,7 +2287,7 @@
         <f t="shared" ref="U6:U14" si="4">LOG(T6)</f>
         <v>-0.31803554100531689</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="9">
         <f t="shared" ref="V6:V14" si="5">LOG10(R6)</f>
         <v>0.42586601077099273</v>
       </c>
@@ -2304,7 +2335,7 @@
       <c r="P7" s="2">
         <v>3</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="10">
         <f t="shared" si="0"/>
         <v>5.554012774229381E-4</v>
       </c>
@@ -2324,7 +2355,7 @@
         <f t="shared" si="4"/>
         <v>-0.344093581819785</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="9">
         <f t="shared" si="5"/>
         <v>0.42514178411860892</v>
       </c>
@@ -2372,7 +2403,7 @@
       <c r="P8" s="2">
         <v>4</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="10">
         <f t="shared" si="0"/>
         <v>5.433228481555619E-4</v>
       </c>
@@ -2392,7 +2423,7 @@
         <f t="shared" si="4"/>
         <v>-0.37592426885431734</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="9">
         <f t="shared" si="5"/>
         <v>0.41559287846949722</v>
       </c>
@@ -2440,7 +2471,7 @@
       <c r="P9" s="2">
         <v>5</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="10">
         <f t="shared" si="0"/>
         <v>5.0385299347954955E-4</v>
       </c>
@@ -2460,7 +2491,7 @@
         <f t="shared" si="4"/>
         <v>-0.42113167133397139</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="9">
         <f t="shared" si="5"/>
         <v>0.38283875295108055</v>
       </c>
@@ -2508,7 +2539,7 @@
       <c r="P10" s="2">
         <v>6</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="10">
         <f t="shared" si="0"/>
         <v>4.755865567533291E-4</v>
       </c>
@@ -2528,7 +2559,7 @@
         <f t="shared" si="4"/>
         <v>-0.46142626619314431</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="9">
         <f t="shared" si="5"/>
         <v>0.35776447988871013</v>
       </c>
@@ -2576,7 +2607,7 @@
       <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="10">
         <f t="shared" si="0"/>
         <v>4.2052144659377626E-4</v>
       </c>
@@ -2596,7 +2627,7 @@
         <f t="shared" si="4"/>
         <v>-0.51598503733243706</v>
       </c>
-      <c r="V11" s="21">
+      <c r="V11" s="9">
         <f t="shared" si="5"/>
         <v>0.30432305954324018</v>
       </c>
@@ -2644,7 +2675,7 @@
       <c r="P12" s="2">
         <v>8</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="10">
         <f t="shared" si="0"/>
         <v>4.1296060991105469E-4</v>
       </c>
@@ -2664,7 +2695,7 @@
         <f t="shared" si="4"/>
         <v>-0.5770820192323376</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="9">
         <f t="shared" si="5"/>
         <v>0.29644353844572285</v>
       </c>
@@ -2712,7 +2743,7 @@
       <c r="P13" s="2">
         <v>9</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="10">
         <f t="shared" si="0"/>
         <v>3.7232392181197645E-4</v>
       </c>
@@ -2732,7 +2763,7 @@
         <f t="shared" si="4"/>
         <v>-0.64975198166583714</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="9">
         <f t="shared" si="5"/>
         <v>0.25145585036120338</v>
       </c>
@@ -2780,7 +2811,7 @@
       <c r="P14" s="2">
         <v>10</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="10">
         <f t="shared" si="0"/>
         <v>3.2894736842105268E-4</v>
       </c>
@@ -2800,7 +2831,7 @@
         <f t="shared" si="4"/>
         <v>-0.71669877129645043</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="9">
         <f t="shared" si="5"/>
         <v>0.19766132621715929</v>
       </c>
@@ -2891,11 +2922,11 @@
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="11">
         <f>D3</f>
         <v>20.5</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
@@ -2912,11 +2943,11 @@
       <c r="J19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="17">
         <f>H3</f>
         <v>17</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="2" t="s">
         <v>16</v>
       </c>
@@ -2979,7 +3010,7 @@
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="10">
         <f>(C7*10^-3)/D7</f>
         <v>8.9126559714795015E-4</v>
       </c>
@@ -2999,14 +3030,14 @@
         <f>LOG(F21)</f>
         <v>-0.42296801437396864</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="9">
         <f>LOG10(D21)</f>
         <v>0.43140953960217737</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="10">
         <f>(G7*10^-3)/H7</f>
         <v>7.4872716382150348E-4</v>
       </c>
@@ -3026,7 +3057,7 @@
         <f>LOG(N21)</f>
         <v>-0.3767507096020995</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="9">
         <f>LOG10(L21)</f>
         <v>0.51833586549494759</v>
       </c>
@@ -3035,7 +3066,7 @@
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="10">
         <f t="shared" ref="C22:C30" si="6">(C8*10^-3)/D8</f>
         <v>8.4721829991527822E-4</v>
       </c>
@@ -3055,14 +3086,14 @@
         <f t="shared" ref="G22:G30" si="10">LOG(F22)</f>
         <v>-0.45642857603763454</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="9">
         <f t="shared" ref="H22:H30" si="11">LOG10(D22)</f>
         <v>0.40939772448387135</v>
       </c>
       <c r="J22" s="2">
         <v>2</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="10">
         <f t="shared" ref="K22:K30" si="12">(G8*10^-3)/H8</f>
         <v>7.4161969741916344E-4</v>
       </c>
@@ -3082,7 +3113,7 @@
         <f t="shared" ref="O22:O30" si="16">LOG(N22)</f>
         <v>-0.40671393297954272</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="9">
         <f t="shared" ref="P22:P30" si="17">LOG10(L22)</f>
         <v>0.51419353202834639</v>
       </c>
@@ -3091,7 +3122,7 @@
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="10">
         <f t="shared" si="6"/>
         <v>8.1168831168831163E-4</v>
       </c>
@@ -3111,14 +3142,14 @@
         <f t="shared" si="10"/>
         <v>-0.49160496686694694</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="9">
         <f t="shared" si="11"/>
         <v>0.39079168869391329</v>
       </c>
       <c r="J23" s="2">
         <v>3</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="10">
         <f t="shared" si="12"/>
         <v>6.8997240110395578E-4</v>
       </c>
@@ -3138,7 +3169,7 @@
         <f t="shared" si="16"/>
         <v>-0.44177157819667429</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="9">
         <f t="shared" si="17"/>
         <v>0.48284399518268617</v>
       </c>
@@ -3147,7 +3178,7 @@
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="10">
         <f t="shared" si="6"/>
         <v>7.816571130797289E-4</v>
       </c>
@@ -3167,14 +3198,14 @@
         <f t="shared" si="10"/>
         <v>-0.52753610339301049</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="9">
         <f t="shared" si="11"/>
         <v>0.37441868084252966</v>
       </c>
       <c r="J24" s="2">
         <v>4</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="10">
         <f t="shared" si="12"/>
         <v>6.7512827437213069E-4</v>
       </c>
@@ -3194,7 +3225,7 @@
         <f t="shared" si="16"/>
         <v>-0.47573373123302126</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="9">
         <f t="shared" si="17"/>
         <v>0.47339857249987571</v>
       </c>
@@ -3203,7 +3234,7 @@
       <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="10">
         <f t="shared" si="6"/>
         <v>7.2212593876372052E-4</v>
       </c>
@@ -3223,14 +3254,14 @@
         <f t="shared" si="10"/>
         <v>-0.56543109596580121</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="9">
         <f t="shared" si="11"/>
         <v>0.34001534165498259</v>
       </c>
       <c r="J25" s="2">
         <v>5</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="10">
         <f t="shared" si="12"/>
         <v>6.4340863597369172E-4</v>
       </c>
@@ -3250,7 +3281,7 @@
         <f t="shared" si="16"/>
         <v>-0.50919904798914506</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="9">
         <f t="shared" si="17"/>
         <v>0.45249916167939847</v>
       </c>
@@ -3259,7 +3290,7 @@
       <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="10">
         <f t="shared" si="6"/>
         <v>7.1942446043165469E-4</v>
       </c>
@@ -3279,14 +3310,14 @@
         <f t="shared" si="10"/>
         <v>-0.60835929650761211</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="9">
         <f t="shared" si="11"/>
         <v>0.33838759626822495</v>
       </c>
       <c r="J26" s="2">
         <v>6</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="10">
         <f t="shared" si="12"/>
         <v>6.1124694376528117E-4</v>
       </c>
@@ -3306,7 +3337,7 @@
         <f t="shared" si="16"/>
         <v>-0.56288390695192136</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="9">
         <f t="shared" si="17"/>
         <v>0.43022897654197656</v>
       </c>
@@ -3315,7 +3346,7 @@
       <c r="B27" s="2">
         <v>7</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="10">
         <f t="shared" si="6"/>
         <v>6.860592755214051E-4</v>
       </c>
@@ -3335,14 +3366,14 @@
         <f t="shared" si="10"/>
         <v>-0.6671577330056484</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="9">
         <f t="shared" si="11"/>
         <v>0.31776403689339694</v>
       </c>
       <c r="J27" s="2">
         <v>7</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="10">
         <f t="shared" si="12"/>
         <v>5.6625141562853911E-4</v>
       </c>
@@ -3362,7 +3393,7 @@
         <f t="shared" si="16"/>
         <v>-0.60695153358322174</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="9">
         <f t="shared" si="17"/>
         <v>0.39702157663573101</v>
       </c>
@@ -3371,7 +3402,7 @@
       <c r="B28" s="2">
         <v>8</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="10">
         <f t="shared" si="6"/>
         <v>6.1977068484660668E-4</v>
       </c>
@@ -3391,14 +3422,14 @@
         <f t="shared" si="10"/>
         <v>-0.714892970433188</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="9">
         <f t="shared" si="11"/>
         <v>0.27363342678239616</v>
       </c>
       <c r="J28" s="2">
         <v>8</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="10">
         <f t="shared" si="12"/>
         <v>5.3504547886570354E-4</v>
       </c>
@@ -3418,7 +3449,7 @@
         <f t="shared" si="16"/>
         <v>-0.65443024394360783</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P28" s="9">
         <f t="shared" si="17"/>
         <v>0.37240297449844867</v>
       </c>
@@ -3427,7 +3458,7 @@
       <c r="B29" s="2">
         <v>9</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="10">
         <f t="shared" si="6"/>
         <v>5.854800936768151E-4</v>
       </c>
@@ -3447,14 +3478,14 @@
         <f t="shared" si="10"/>
         <v>-0.7664962396588656</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="9">
         <f t="shared" si="11"/>
         <v>0.24891453016933379</v>
       </c>
       <c r="J29" s="2">
         <v>9</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="10">
         <f t="shared" si="12"/>
         <v>5.0403225806451622E-4</v>
       </c>
@@ -3474,7 +3505,7 @@
         <f t="shared" si="16"/>
         <v>-0.71309464702762515</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="9">
         <f t="shared" si="17"/>
         <v>0.346470608059121</v>
       </c>
@@ -3483,7 +3514,7 @@
       <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="10">
         <f t="shared" si="6"/>
         <v>5.2260256075254764E-4</v>
       </c>
@@ -3503,14 +3534,14 @@
         <f t="shared" si="10"/>
         <v>-0.85387196432176204</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="9">
         <f t="shared" si="11"/>
         <v>0.19957392996180184</v>
       </c>
       <c r="J30" s="2">
         <v>10</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="10">
         <f t="shared" si="12"/>
         <v>4.5537340619307832E-4</v>
       </c>
@@ -3530,48 +3561,48 @@
         <f t="shared" si="16"/>
         <v>-0.78727984558215769</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="9">
         <f t="shared" si="17"/>
         <v>0.30237994009922636</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="11">
         <v>20.5</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="17">
         <v>17</v>
       </c>
-      <c r="I35" s="17"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="17">
         <v>16.3</v>
       </c>
-      <c r="M35" s="17"/>
+      <c r="M35" s="18"/>
       <c r="N35" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
@@ -4193,44 +4224,44 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9" t="s">
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="2" t="s">
         <v>40</v>
       </c>
@@ -4251,11 +4282,11 @@
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="10">
+      <c r="B52" s="20">
         <f>D35</f>
         <v>20.5</v>
       </c>
-      <c r="C52" s="11"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="7">
         <f>C47/10</f>
         <v>0.3324306495352628</v>
@@ -4288,11 +4319,11 @@
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+      <c r="B53" s="22">
         <f>H35</f>
         <v>17</v>
       </c>
-      <c r="C53" s="11"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="7">
         <f>G47/10</f>
         <v>0.42897752027197578</v>
@@ -4325,11 +4356,11 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+      <c r="B54" s="22">
         <f>L35</f>
         <v>16.3</v>
       </c>
-      <c r="C54" s="11"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="7">
         <f>K47/10</f>
         <v>0.35039920104276645</v>
@@ -4363,13 +4394,17 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="D35:E35"/>
@@ -4386,17 +4421,13 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lab7/lab7-yo.xlsx
+++ b/lab7/lab7-yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B359B9E-1EBE-485C-A3CA-995121BD7765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10773BD7-313E-4771-ACFD-55E04424A90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0CC3805-AC8E-40F5-BA8D-7020D17EC853}"/>
   </bookViews>
@@ -340,30 +340,6 @@
     <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,6 +351,30 @@
     </xf>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2047,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBE7EE-F248-49DA-9638-1D85BBA26B11}">
   <dimension ref="B3:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2069,47 +2069,47 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="18">
         <v>20.5</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>17</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <v>16.3</v>
       </c>
-      <c r="M3" s="18"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="15">
         <f>L3</f>
         <v>16.3</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
@@ -2125,34 +2125,34 @@
       </c>
     </row>
     <row r="4" spans="2:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="18">
         <v>1.25</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="18">
         <v>1.25</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="18">
         <v>1.25</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2179,37 +2179,37 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="16"/>
       <c r="P5" s="2">
         <v>1</v>
       </c>
@@ -2239,25 +2239,25 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2922,11 +2922,11 @@
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="18">
         <f>D3</f>
         <v>20.5</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
@@ -2943,11 +2943,11 @@
       <c r="J19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <f>H3</f>
         <v>17</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="2" t="s">
         <v>16</v>
       </c>
@@ -3567,42 +3567,42 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="18">
         <v>20.5</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="15">
         <v>17</v>
       </c>
-      <c r="I35" s="18"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="15">
         <v>16.3</v>
       </c>
-      <c r="M35" s="18"/>
+      <c r="M35" s="19"/>
       <c r="N35" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
@@ -4224,44 +4224,44 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19" t="s">
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
       <c r="I51" s="2" t="s">
         <v>40</v>
       </c>
@@ -4282,11 +4282,11 @@
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="20">
+      <c r="B52" s="12">
         <f>D35</f>
         <v>20.5</v>
       </c>
-      <c r="C52" s="21"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="7">
         <f>C47/10</f>
         <v>0.3324306495352628</v>
@@ -4310,20 +4310,26 @@
       <c r="I52" s="2">
         <v>2</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52" s="5">
+        <f>F52</f>
+        <v>1.8978539865003827</v>
+      </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2">
         <v>1.8520000000000001</v>
       </c>
-      <c r="M52" s="2"/>
+      <c r="M52" s="5">
+        <f>F52</f>
+        <v>1.8978539865003827</v>
+      </c>
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="22">
+      <c r="B53" s="14">
         <f>H35</f>
         <v>17</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="7">
         <f>G47/10</f>
         <v>0.42897752027197578</v>
@@ -4347,20 +4353,26 @@
       <c r="I53" s="2">
         <v>2</v>
       </c>
-      <c r="J53" s="2"/>
+      <c r="J53" s="5">
+        <f t="shared" ref="J53:J54" si="32">F53</f>
+        <v>1.8642943937321226</v>
+      </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2">
         <v>1.8520000000000001</v>
       </c>
-      <c r="M53" s="2"/>
+      <c r="M53" s="5">
+        <f t="shared" ref="M53:M54" si="33">F53</f>
+        <v>1.8642943937321226</v>
+      </c>
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="22">
+      <c r="B54" s="14">
         <f>L35</f>
         <v>16.3</v>
       </c>
-      <c r="C54" s="21"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="7">
         <f>K47/10</f>
         <v>0.35039920104276645</v>
@@ -4374,7 +4386,7 @@
         <v>1.7145130014293293</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" ref="G54" si="32">E54-F54*D54</f>
+        <f t="shared" ref="G54" si="34">E54-F54*D54</f>
         <v>-1.0672434313724009</v>
       </c>
       <c r="H54" s="6">
@@ -4384,27 +4396,29 @@
       <c r="I54" s="2">
         <v>2</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54" s="5">
+        <f t="shared" si="32"/>
+        <v>1.7145130014293293</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2">
         <v>1.8520000000000001</v>
       </c>
-      <c r="M54" s="2"/>
+      <c r="M54" s="5">
+        <f t="shared" si="33"/>
+        <v>1.7145130014293293</v>
+      </c>
       <c r="N54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="D35:E35"/>
@@ -4421,13 +4435,17 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
